--- a/data/hotels_by_city/Houston/Houston_shard_156.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_156.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="713">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56707-d106338-Reviews-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Courtyard-By-Marriott-Houston-Sugar-Land.h79412.Hotel-Information?chkin=7%2F9%2F2018&amp;chkout=7%2F10%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530453208728&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=1f6dab4a-9c6e-454c-814f-3fce78c07fec&amp;mctc=9&amp;exp_dp=89.25&amp;exp_ts=1530453209353&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,2064 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r548799028-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>106338</t>
+  </si>
+  <si>
+    <t>548799028</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Patricia was great</t>
+  </si>
+  <si>
+    <t>Patricia made our stay absolutely wonderful. We came for a wedding and she went above and beyond to make sure that we were taken care of.Rooms were very accomdating for our family. Location is near major highways and plenty of restaurants. To management, please take note of your great employee! MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded December 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2017</t>
+  </si>
+  <si>
+    <t>Patricia made our stay absolutely wonderful. We came for a wedding and she went above and beyond to make sure that we were taken care of.Rooms were very accomdating for our family. Location is near major highways and plenty of restaurants. To management, please take note of your great employee! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r547079622-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>547079622</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>It was nice</t>
+  </si>
+  <si>
+    <t>The stay was ok and the staff were nice and  polite the rooms were clean but there were a few things that could’ve made the stay a little better is the  stay it would’ve been nicer to have a microwave and small refrigerator and also a shower chair in the roll in shower for the handicapped b/c our friend wasn’t able to take a shower the whole stay there , that was kinda of hard for her. So kinda gave her disappointment. It would’ve been nice to have complementary breakfast but they don’t , but the beds were very comfortable tho. And nice towels and wash cloths.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r545595504-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>545595504</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>Booked several rooms to enable friends/relatives to stay close to the venue where my 70th birthday party was held.  Worked with Sales Manager Alicia Thompson to make the reservation.  Alecia was very professional and offered us a very competitive rate.  She often contacted me with suggestions and advice to make our stay more pleasurable.  Many thanks to Alecia and her staff for making this a very seamless and pleasurable experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Booked several rooms to enable friends/relatives to stay close to the venue where my 70th birthday party was held.  Worked with Sales Manager Alicia Thompson to make the reservation.  Alecia was very professional and offered us a very competitive rate.  She often contacted me with suggestions and advice to make our stay more pleasurable.  Many thanks to Alecia and her staff for making this a very seamless and pleasurable experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r527711657-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>527711657</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>The Team Makes The Difference</t>
+  </si>
+  <si>
+    <t>I'm a Marriott Gold member so I've stayed at more than my share of Courtyards. The location in Sugar Land is special. Not because of the facility. While it's certainly up to Courtyard standards, what stands out at this location is the Team. Tee Jay, Deja, Fatima and the rest always greet you with a smile. They remember your name and they go out of their way to make your stay pleasant. They make you want to come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded September 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2017</t>
+  </si>
+  <si>
+    <t>I'm a Marriott Gold member so I've stayed at more than my share of Courtyards. The location in Sugar Land is special. Not because of the facility. While it's certainly up to Courtyard standards, what stands out at this location is the Team. Tee Jay, Deja, Fatima and the rest always greet you with a smile. They remember your name and they go out of their way to make your stay pleasant. They make you want to come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r526515665-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>526515665</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Customer Service </t>
+  </si>
+  <si>
+    <t>I wanna send a huge thank you to Marriott , and  especially FATIMAH , this lovely lady is so positive and such a beautiful spirit I really appreciate her great customer service and positive energy Thank u FATIMAH  MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded September 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2017</t>
+  </si>
+  <si>
+    <t>I wanna send a huge thank you to Marriott , and  especially FATIMAH , this lovely lady is so positive and such a beautiful spirit I really appreciate her great customer service and positive energy Thank u FATIMAH  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r524743808-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>524743808</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>Great Staff!</t>
+  </si>
+  <si>
+    <t>The best thing about this hotel is the staff.  Tee Jay, Deja, Maria (housekeeping) and Fatima are all very professional, helpful and patient.  I am often picky about my room and they do all they can to make sure I have a pleasant stay.  I appreciate how they go the extra mile for their customers!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded September 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2017</t>
+  </si>
+  <si>
+    <t>The best thing about this hotel is the staff.  Tee Jay, Deja, Maria (housekeeping) and Fatima are all very professional, helpful and patient.  I am often picky about my room and they do all they can to make sure I have a pleasant stay.  I appreciate how they go the extra mile for their customers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r511825064-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>511825064</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>This is a really nice hotel. I especially enjoyed the enjoyed bistro workers Larry W and Xeni. They were very curious and a pleasure to be around. They brightened my morning and put a smile on my face.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>This is a really nice hotel. I especially enjoyed the enjoyed bistro workers Larry W and Xeni. They were very curious and a pleasure to be around. They brightened my morning and put a smile on my face.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r509789117-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>509789117</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Church Conference Hotel</t>
+  </si>
+  <si>
+    <t>Thank you Courtyard for a great experience with my group.  You were easy to book a block of rooms with and our conference team loved their stay.  Thank you for all your help making our conference a success!MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Thank you Courtyard for a great experience with my group.  You were easy to book a block of rooms with and our conference team loved their stay.  Thank you for all your help making our conference a success!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r509348112-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>509348112</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>I was here with a wedding party, and the service was outstanding, both the front desk and the house staff. Daja at the front desk was absolutely wonderful in helping coordinate everything and catering to our requests, and TJ was also excellent. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>I was here with a wedding party, and the service was outstanding, both the front desk and the house staff. Daja at the front desk was absolutely wonderful in helping coordinate everything and catering to our requests, and TJ was also excellent. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r505072030-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>505072030</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>We had a great stay at the Courtyard Sugar Land</t>
+  </si>
+  <si>
+    <t>Our group recently stayed at the Courtyard Houston Sugar Land as we had a conference to attend and we had an amazing time here. We selected this hotel for our conference mostly because of Alecia, the hotel manager. She was fantastic! She was very personable and addressed our needs and concerns during the booking process as we  had many rooms (17+) and she gave us a great group rate. The only downside to the rate is that we should have included breakfast. The other hotel staff were also exceptional as they went above and beyond to help us with our many requests. The hotel rooms were clean and the towels were plenty which was greatly appreciated. The location was convenient for us off US-59, many restaurants close-by, and it was close to our event venue. We would definitely stay at this location again as we received such excellent service.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Our group recently stayed at the Courtyard Houston Sugar Land as we had a conference to attend and we had an amazing time here. We selected this hotel for our conference mostly because of Alecia, the hotel manager. She was fantastic! She was very personable and addressed our needs and concerns during the booking process as we  had many rooms (17+) and she gave us a great group rate. The only downside to the rate is that we should have included breakfast. The other hotel staff were also exceptional as they went above and beyond to help us with our many requests. The hotel rooms were clean and the towels were plenty which was greatly appreciated. The location was convenient for us off US-59, many restaurants close-by, and it was close to our event venue. We would definitely stay at this location again as we received such excellent service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r504242679-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>504242679</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Very Good and getting Better</t>
+  </si>
+  <si>
+    <t>________________________________________________________________
+I have stayed at the Courtyard Marriott Sugar Land frequently over the last two years. Most recently I did an extended stay for over 60 days. During that time, I experienced no major problems and the staff was exceptional. I came to know front desk and housekeeping on a first name basis.  Maria, Rosa and Olga and the other housekeepers were always quick with a smile and warm greetings that lifted my spirits. 
+The front desk crew; Alecia, Ms. Patricia, Kaylyn, Amber, T J, and Mr. Alvin were always professional, yet personable and approachable. I perceived their actions and efforts as genuine and sincere, not just lip-service.
+Alecia was always a standout at the front desk, and she later moved up to Sales.  She has a friendly, outgoing personality and her energetic spirit is pleasantly contagious. She handles herself well, is respectful of others, and is the consummate professional. Whenever there was an issue, I could depend on Alecia and other staff to do their best to resolve it; and do it with a smile.
+The Building--The ventilation system was apparently improved during my extended stay; an effective humidity control system was also implemented; these changes significantly lowered the humidity levels in the building/rooms, improved the air quality, and virtually eliminated any mildew odor problems. When I ended my stay at the end of June 2017, the hotel had started renovating all the rooms.  
+This is an older hotel,...________________________________________________________________I have stayed at the Courtyard Marriott Sugar Land frequently over the last two years. Most recently I did an extended stay for over 60 days. During that time, I experienced no major problems and the staff was exceptional. I came to know front desk and housekeeping on a first name basis.  Maria, Rosa and Olga and the other housekeepers were always quick with a smile and warm greetings that lifted my spirits. The front desk crew; Alecia, Ms. Patricia, Kaylyn, Amber, T J, and Mr. Alvin were always professional, yet personable and approachable. I perceived their actions and efforts as genuine and sincere, not just lip-service.Alecia was always a standout at the front desk, and she later moved up to Sales.  She has a friendly, outgoing personality and her energetic spirit is pleasantly contagious. She handles herself well, is respectful of others, and is the consummate professional. Whenever there was an issue, I could depend on Alecia and other staff to do their best to resolve it; and do it with a smile.The Building--The ventilation system was apparently improved during my extended stay; an effective humidity control system was also implemented; these changes significantly lowered the humidity levels in the building/rooms, improved the air quality, and virtually eliminated any mildew odor problems. When I ended my stay at the end of June 2017, the hotel had started renovating all the rooms.  This is an older hotel, but it has certain construction advantages over some of the recently built hotels. This hotel has better insulated walls and floors, thicker doors, and superior basic construction which contributes to overall building integrity, and makes for quieter rooms and less noise from adjacent rooms. Another plus is that the windows in the rooms can be opened about eight inches, allowing the occupant to let fresh air into the room as needed. This is a useful feature during the fall/spring when neither heat nor AC is needed.The bed in my room was comfortable and the desk and chair were ergonomically sound. The chest of drawers was functional, but otherwise unremarkable. The carpet in my rooms was not stained or soiled, and did not upset my allergies. The black-out drapes worked well but I did not care much for the sheer polyester drapery, because it harbors dust.  I never used the sleeper sofa.  The lighting in the room is more than adequate.  The bathroom was always clean, but lacked adequate ventilation.  The main exhaust system was either turned off or broken during my recent stay. Closet space is ample.I was annoyed by guests or housekeeping’s use of the room door safety latch bar as a door stop. Also, the elevator chime is loud and can be heard clearly even in rooms not adjacent to the elevator.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>________________________________________________________________
+I have stayed at the Courtyard Marriott Sugar Land frequently over the last two years. Most recently I did an extended stay for over 60 days. During that time, I experienced no major problems and the staff was exceptional. I came to know front desk and housekeeping on a first name basis.  Maria, Rosa and Olga and the other housekeepers were always quick with a smile and warm greetings that lifted my spirits. 
+The front desk crew; Alecia, Ms. Patricia, Kaylyn, Amber, T J, and Mr. Alvin were always professional, yet personable and approachable. I perceived their actions and efforts as genuine and sincere, not just lip-service.
+Alecia was always a standout at the front desk, and she later moved up to Sales.  She has a friendly, outgoing personality and her energetic spirit is pleasantly contagious. She handles herself well, is respectful of others, and is the consummate professional. Whenever there was an issue, I could depend on Alecia and other staff to do their best to resolve it; and do it with a smile.
+The Building--The ventilation system was apparently improved during my extended stay; an effective humidity control system was also implemented; these changes significantly lowered the humidity levels in the building/rooms, improved the air quality, and virtually eliminated any mildew odor problems. When I ended my stay at the end of June 2017, the hotel had started renovating all the rooms.  
+This is an older hotel,...________________________________________________________________I have stayed at the Courtyard Marriott Sugar Land frequently over the last two years. Most recently I did an extended stay for over 60 days. During that time, I experienced no major problems and the staff was exceptional. I came to know front desk and housekeeping on a first name basis.  Maria, Rosa and Olga and the other housekeepers were always quick with a smile and warm greetings that lifted my spirits. The front desk crew; Alecia, Ms. Patricia, Kaylyn, Amber, T J, and Mr. Alvin were always professional, yet personable and approachable. I perceived their actions and efforts as genuine and sincere, not just lip-service.Alecia was always a standout at the front desk, and she later moved up to Sales.  She has a friendly, outgoing personality and her energetic spirit is pleasantly contagious. She handles herself well, is respectful of others, and is the consummate professional. Whenever there was an issue, I could depend on Alecia and other staff to do their best to resolve it; and do it with a smile.The Building--The ventilation system was apparently improved during my extended stay; an effective humidity control system was also implemented; these changes significantly lowered the humidity levels in the building/rooms, improved the air quality, and virtually eliminated any mildew odor problems. When I ended my stay at the end of June 2017, the hotel had started renovating all the rooms.  This is an older hotel, but it has certain construction advantages over some of the recently built hotels. This hotel has better insulated walls and floors, thicker doors, and superior basic construction which contributes to overall building integrity, and makes for quieter rooms and less noise from adjacent rooms. Another plus is that the windows in the rooms can be opened about eight inches, allowing the occupant to let fresh air into the room as needed. This is a useful feature during the fall/spring when neither heat nor AC is needed.The bed in my room was comfortable and the desk and chair were ergonomically sound. The chest of drawers was functional, but otherwise unremarkable. The carpet in my rooms was not stained or soiled, and did not upset my allergies. The black-out drapes worked well but I did not care much for the sheer polyester drapery, because it harbors dust.  I never used the sleeper sofa.  The lighting in the room is more than adequate.  The bathroom was always clean, but lacked adequate ventilation.  The main exhaust system was either turned off or broken during my recent stay. Closet space is ample.I was annoyed by guests or housekeeping’s use of the room door safety latch bar as a door stop. Also, the elevator chime is loud and can be heard clearly even in rooms not adjacent to the elevator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r503656718-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>503656718</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jon Fehlman </t>
+  </si>
+  <si>
+    <t>Stayed at the Courtyard Houston Sugar Land (CHSL) during business trip. First time I have been here but always like the quality of Marriott brand hotels. CHSL was one of the best experiences I have had. 
+Tee Jay greeted me Sunday evening with a smile that lit up the room. Long day of travel but she made it all better just with her attitude. Fast check-in and information on all the amenities of the hotel. Got to my room which was clean and ready for me. Went back to the front desk and asked Tee Jay about places to eat. She recommended Pappadeux's which was in an adjacent lot. One of the best meals I have eaten (see review). I told the staff at the restaurant Tee Jay had recommended their restaurant and each could not sing the praises of CHSL and Tee Jay any louder. 
+Kyle is one of the managers at CHSL. Young man leads by example. I came down one morning to see him cleaning windows while dressed in a suit. He bussed tables in the dining area, made coffee for guests and kept a constant check with guests. Kyle was upbeat but quiet in his leadership which impressed me even more. He did nothing to draw attention to himself but because of his actions people noticed him. I will stay here every time I am in this area. Does not matter the commute; this is my...Stayed at the Courtyard Houston Sugar Land (CHSL) during business trip. First time I have been here but always like the quality of Marriott brand hotels. CHSL was one of the best experiences I have had. Tee Jay greeted me Sunday evening with a smile that lit up the room. Long day of travel but she made it all better just with her attitude. Fast check-in and information on all the amenities of the hotel. Got to my room which was clean and ready for me. Went back to the front desk and asked Tee Jay about places to eat. She recommended Pappadeux's which was in an adjacent lot. One of the best meals I have eaten (see review). I told the staff at the restaurant Tee Jay had recommended their restaurant and each could not sing the praises of CHSL and Tee Jay any louder. Kyle is one of the managers at CHSL. Young man leads by example. I came down one morning to see him cleaning windows while dressed in a suit. He bussed tables in the dining area, made coffee for guests and kept a constant check with guests. Kyle was upbeat but quiet in his leadership which impressed me even more. He did nothing to draw attention to himself but because of his actions people noticed him. I will stay here every time I am in this area. Does not matter the commute; this is my hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at the Courtyard Houston Sugar Land (CHSL) during business trip. First time I have been here but always like the quality of Marriott brand hotels. CHSL was one of the best experiences I have had. 
+Tee Jay greeted me Sunday evening with a smile that lit up the room. Long day of travel but she made it all better just with her attitude. Fast check-in and information on all the amenities of the hotel. Got to my room which was clean and ready for me. Went back to the front desk and asked Tee Jay about places to eat. She recommended Pappadeux's which was in an adjacent lot. One of the best meals I have eaten (see review). I told the staff at the restaurant Tee Jay had recommended their restaurant and each could not sing the praises of CHSL and Tee Jay any louder. 
+Kyle is one of the managers at CHSL. Young man leads by example. I came down one morning to see him cleaning windows while dressed in a suit. He bussed tables in the dining area, made coffee for guests and kept a constant check with guests. Kyle was upbeat but quiet in his leadership which impressed me even more. He did nothing to draw attention to himself but because of his actions people noticed him. I will stay here every time I am in this area. Does not matter the commute; this is my...Stayed at the Courtyard Houston Sugar Land (CHSL) during business trip. First time I have been here but always like the quality of Marriott brand hotels. CHSL was one of the best experiences I have had. Tee Jay greeted me Sunday evening with a smile that lit up the room. Long day of travel but she made it all better just with her attitude. Fast check-in and information on all the amenities of the hotel. Got to my room which was clean and ready for me. Went back to the front desk and asked Tee Jay about places to eat. She recommended Pappadeux's which was in an adjacent lot. One of the best meals I have eaten (see review). I told the staff at the restaurant Tee Jay had recommended their restaurant and each could not sing the praises of CHSL and Tee Jay any louder. Kyle is one of the managers at CHSL. Young man leads by example. I came down one morning to see him cleaning windows while dressed in a suit. He bussed tables in the dining area, made coffee for guests and kept a constant check with guests. Kyle was upbeat but quiet in his leadership which impressed me even more. He did nothing to draw attention to himself but because of his actions people noticed him. I will stay here every time I am in this area. Does not matter the commute; this is my hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r499486356-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>499486356</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>My place to stay when I have business in Houston...</t>
+  </si>
+  <si>
+    <t>As a Platinum Premier, I am very deliberate about the Marriott locations I stay at for travel and downtime.  I have stayed and continue to stay at many properties and I certainly have my favorites.  When I’m in Houston, the Courtyard Sugar Land / Stafford is a favorite location of mine and I have stayed there on many occasions over the past couple of years.  The staff there is very welcoming, warm, and courteous.  Based on the amount of travel I do, it’s nice the staff remembers your name and is always welcoming…home away from home.  During my past trips, Alecia has always given me a warm welcome and ensured my preferred market item as an Elite member is in stock or set aside for me (Peanut M&amp;M’s)…and in the morning’s on the way to the office or heading back home, Patricia’s morning warmth and positive demeanor is always welcomed and a great way to start the day.  This location is well kept.  I highly recommend the stay at the Courtyard Sugar Land / Stafford.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>As a Platinum Premier, I am very deliberate about the Marriott locations I stay at for travel and downtime.  I have stayed and continue to stay at many properties and I certainly have my favorites.  When I’m in Houston, the Courtyard Sugar Land / Stafford is a favorite location of mine and I have stayed there on many occasions over the past couple of years.  The staff there is very welcoming, warm, and courteous.  Based on the amount of travel I do, it’s nice the staff remembers your name and is always welcoming…home away from home.  During my past trips, Alecia has always given me a warm welcome and ensured my preferred market item as an Elite member is in stock or set aside for me (Peanut M&amp;M’s)…and in the morning’s on the way to the office or heading back home, Patricia’s morning warmth and positive demeanor is always welcomed and a great way to start the day.  This location is well kept.  I highly recommend the stay at the Courtyard Sugar Land / Stafford.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r499459394-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>499459394</t>
+  </si>
+  <si>
+    <t>First class care and hospitality</t>
+  </si>
+  <si>
+    <t>My experience at the Courtyard in Stafford Texas during our May 2017 convention was a very positive one. The staff attended to our needs and requests with kindness and carefulness. They treated us like we are the owners of the property - making out stay extra special. Special thanks to the sales Manager, miss Alecia Thompson, who was the architect behind this. Her enthusiasm and passion sold this stay for us. Her hospitality and attention to detail made the decision to stay in this hotel a great decision on our part. Despite our late requests for additional rooms, from 17 to over 20, (as well as room change in some cases) she made sure we were accommodated and given the best of care. Take for example a case in point, she offered to make arrangements to get us the specialized food we wanted if her hotel could not provide it. That is going above and beyond in hospitality and care. For this and many other positive reasons, we hope to be back to this hotel each time we host our next conventions in Houston. I will also encourage our friends to check this hotel out for the future conventions and stays.Regards,FelixMoreShow less</t>
+  </si>
+  <si>
+    <t>My experience at the Courtyard in Stafford Texas during our May 2017 convention was a very positive one. The staff attended to our needs and requests with kindness and carefulness. They treated us like we are the owners of the property - making out stay extra special. Special thanks to the sales Manager, miss Alecia Thompson, who was the architect behind this. Her enthusiasm and passion sold this stay for us. Her hospitality and attention to detail made the decision to stay in this hotel a great decision on our part. Despite our late requests for additional rooms, from 17 to over 20, (as well as room change in some cases) she made sure we were accommodated and given the best of care. Take for example a case in point, she offered to make arrangements to get us the specialized food we wanted if her hotel could not provide it. That is going above and beyond in hospitality and care. For this and many other positive reasons, we hope to be back to this hotel each time we host our next conventions in Houston. I will also encourage our friends to check this hotel out for the future conventions and stays.Regards,FelixMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r499271020-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>499271020</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Great Family Reunion</t>
+  </si>
+  <si>
+    <t>Tee Jay is the best! Very helpful and remember us by name. Great with kids and fell in love with my 4 month son.Warm pool and overall fantastic place. Only thing that could make this better is a free room and free foodMoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Tee Jay is the best! Very helpful and remember us by name. Great with kids and fell in love with my 4 month son.Warm pool and overall fantastic place. Only thing that could make this better is a free room and free foodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r480545589-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>480545589</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Amazing Staff</t>
+  </si>
+  <si>
+    <t>I stay at Courtyard Marriott's often. This one is a little older, the rooms will need updating soon, but it is very clean, pool is very clean and the staff is amazing. One of the managers Kaylyn (I believe that is correct) went and found us a refrigerator for our room as we had food for someone on a special diet. We also saw her personally carrying an older couples luggage to their room. Every other person we interacted w/ at the front desk was also above average w/ hospitality and kindness. The area of town is ok, but there are a lot of good restaurants and bars close by and you can walk next door to Pappadeaux. They have a decent cafe and bar, hours are 7am-10am and 5pm-10pm and they make Starbucks in the morning. Also plenty of parking. Please give my review a helpful vote if you agree.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>I stay at Courtyard Marriott's often. This one is a little older, the rooms will need updating soon, but it is very clean, pool is very clean and the staff is amazing. One of the managers Kaylyn (I believe that is correct) went and found us a refrigerator for our room as we had food for someone on a special diet. We also saw her personally carrying an older couples luggage to their room. Every other person we interacted w/ at the front desk was also above average w/ hospitality and kindness. The area of town is ok, but there are a lot of good restaurants and bars close by and you can walk next door to Pappadeaux. They have a decent cafe and bar, hours are 7am-10am and 5pm-10pm and they make Starbucks in the morning. Also plenty of parking. Please give my review a helpful vote if you agree.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r463907941-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>463907941</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Best Front Desk!</t>
+  </si>
+  <si>
+    <t>I am giving this hotel 5 stars all because of 1 person!! TJ at the front desk! She is the most pleasant, delightful person I've met at a hotel front desk in years!!! I traveled every week in February, several states and 2 countries for work and she ran circles around all other desk employees. The hotel was clean and updated. The staff and the little restaurant/bar were all very nice, but she was EXCELLENT!! Take care of her Marriott because she is a great asset!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded March 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2017</t>
+  </si>
+  <si>
+    <t>I am giving this hotel 5 stars all because of 1 person!! TJ at the front desk! She is the most pleasant, delightful person I've met at a hotel front desk in years!!! I traveled every week in February, several states and 2 countries for work and she ran circles around all other desk employees. The hotel was clean and updated. The staff and the little restaurant/bar were all very nice, but she was EXCELLENT!! Take care of her Marriott because she is a great asset!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r438169643-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>438169643</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>Location is on the Freeway Feeder Road but very quiet and traffic noise. Reception check in and out was very quick. Facility was very modern and clean. Lobby restaurant / bar was well staffed. Rooms are large and have what you need except a room safe.Bedding is very comfortable. Major shopping center is 15 minutes drive away. Several restaurants are within walking distance. Will stay here again .</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r421306020-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>421306020</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Fine place to stay in good location.</t>
+  </si>
+  <si>
+    <t>Hotel was probably a three in terms of the rooms but the service by the staff helps me move this up to a four. The first room I was in had a pretty strong mildew smell and they switched me to a different room which was appreciated. The rest of the stay went okay. Upon checkout I was sharing a room with another associate and we needed to switch the credit card. The switch didn't happen and I had to call back a week later. They took care of it for me promptly.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Adam P, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Hotel was probably a three in terms of the rooms but the service by the staff helps me move this up to a four. The first room I was in had a pretty strong mildew smell and they switched me to a different room which was appreciated. The rest of the stay went okay. Upon checkout I was sharing a room with another associate and we needed to switch the credit card. The switch didn't happen and I had to call back a week later. They took care of it for me promptly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r410063351-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>410063351</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Mold and Mildew Ruied the Day</t>
+  </si>
+  <si>
+    <t>As a Marriott Rewards Member, I assumed my stay at the Courtyard in Sugarland, TX would go off without a hitch.  Much to my surprise and dismay, nothing could be further from the truth. 
+My fellow travelers, do not be fooled by the renovated lobby. This Marriott franchise property, does a great job at DRAGGING THE MARRIOTT NAME THROUGH THE MUD with their shoddy accommodations.  I was very surprised and disappointed that a hotel, sporting the Marriott brand name would be in such a poor condition.
+Upon arrival, I was greeted by a very courteous and professional front desk agent by the name of Amber.  She was able to check me in early (I arrived at 10am and check-in was at 4pm) and handed me keys to a room on the 4th floor.  
+Upon entering the room, I was overwhelmed by the odor of mildew. The carpet was extremely worn and faded and I noticed the picture frame hanging on the wall had condensation on the inside of the glass and the cardboard matting around the picture inside the frame was warped from moisture. As I am allergic to mold, I knew I could not stay in this room.
+Road weary from a trip which began at 2am that day, I trekked back to the lobby to explain the situation and request a new room assignment.  Amber apologized for the inconvenience and gave me a key to a room on...As a Marriott Rewards Member, I assumed my stay at the Courtyard in Sugarland, TX would go off without a hitch.  Much to my surprise and dismay, nothing could be further from the truth. My fellow travelers, do not be fooled by the renovated lobby. This Marriott franchise property, does a great job at DRAGGING THE MARRIOTT NAME THROUGH THE MUD with their shoddy accommodations.  I was very surprised and disappointed that a hotel, sporting the Marriott brand name would be in such a poor condition.Upon arrival, I was greeted by a very courteous and professional front desk agent by the name of Amber.  She was able to check me in early (I arrived at 10am and check-in was at 4pm) and handed me keys to a room on the 4th floor.  Upon entering the room, I was overwhelmed by the odor of mildew. The carpet was extremely worn and faded and I noticed the picture frame hanging on the wall had condensation on the inside of the glass and the cardboard matting around the picture inside the frame was warped from moisture. As I am allergic to mold, I knew I could not stay in this room.Road weary from a trip which began at 2am that day, I trekked back to the lobby to explain the situation and request a new room assignment.  Amber apologized for the inconvenience and gave me a key to a room on the 3rd floor.  When I entered, the mildew odor was also present in the new room.Once again I went downstairs to the front desk.  This time I asked if there were any rooms that were free of mildew and after checking with her manager, she returned with keys to a room on the 2nd floor, and gave me assurances that the carpet in the room had been recently cleaned.  She was super nice and very apologetic and offered me free breakfast during my stay, for my inconvenience. Needless to say this third room smelled like mildew with a hint of shampoo.  Again, I returned to the front desk to request that my reservation be cancelled without charge. At this point, I felt sorry for Amber since I recognized that the shabby rooms which were in disrepair (leaks from the air conditioners were apparent in the room with the balcony) were beyond her ability to control.  Her service acumen was definitely superior to the hotel’s subpar conditions.I went to my car and booked a room in the Holiday Inn Express 5 minutes away. The interesting this is when I researched the property prior to booking, I saw nothing but great ratings on the hotel’s website, which makes me wonder if management only posts the good ones, as I am sure I am not the only guest that had this complaint.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Adam P, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>As a Marriott Rewards Member, I assumed my stay at the Courtyard in Sugarland, TX would go off without a hitch.  Much to my surprise and dismay, nothing could be further from the truth. 
+My fellow travelers, do not be fooled by the renovated lobby. This Marriott franchise property, does a great job at DRAGGING THE MARRIOTT NAME THROUGH THE MUD with their shoddy accommodations.  I was very surprised and disappointed that a hotel, sporting the Marriott brand name would be in such a poor condition.
+Upon arrival, I was greeted by a very courteous and professional front desk agent by the name of Amber.  She was able to check me in early (I arrived at 10am and check-in was at 4pm) and handed me keys to a room on the 4th floor.  
+Upon entering the room, I was overwhelmed by the odor of mildew. The carpet was extremely worn and faded and I noticed the picture frame hanging on the wall had condensation on the inside of the glass and the cardboard matting around the picture inside the frame was warped from moisture. As I am allergic to mold, I knew I could not stay in this room.
+Road weary from a trip which began at 2am that day, I trekked back to the lobby to explain the situation and request a new room assignment.  Amber apologized for the inconvenience and gave me a key to a room on...As a Marriott Rewards Member, I assumed my stay at the Courtyard in Sugarland, TX would go off without a hitch.  Much to my surprise and dismay, nothing could be further from the truth. My fellow travelers, do not be fooled by the renovated lobby. This Marriott franchise property, does a great job at DRAGGING THE MARRIOTT NAME THROUGH THE MUD with their shoddy accommodations.  I was very surprised and disappointed that a hotel, sporting the Marriott brand name would be in such a poor condition.Upon arrival, I was greeted by a very courteous and professional front desk agent by the name of Amber.  She was able to check me in early (I arrived at 10am and check-in was at 4pm) and handed me keys to a room on the 4th floor.  Upon entering the room, I was overwhelmed by the odor of mildew. The carpet was extremely worn and faded and I noticed the picture frame hanging on the wall had condensation on the inside of the glass and the cardboard matting around the picture inside the frame was warped from moisture. As I am allergic to mold, I knew I could not stay in this room.Road weary from a trip which began at 2am that day, I trekked back to the lobby to explain the situation and request a new room assignment.  Amber apologized for the inconvenience and gave me a key to a room on the 3rd floor.  When I entered, the mildew odor was also present in the new room.Once again I went downstairs to the front desk.  This time I asked if there were any rooms that were free of mildew and after checking with her manager, she returned with keys to a room on the 2nd floor, and gave me assurances that the carpet in the room had been recently cleaned.  She was super nice and very apologetic and offered me free breakfast during my stay, for my inconvenience. Needless to say this third room smelled like mildew with a hint of shampoo.  Again, I returned to the front desk to request that my reservation be cancelled without charge. At this point, I felt sorry for Amber since I recognized that the shabby rooms which were in disrepair (leaks from the air conditioners were apparent in the room with the balcony) were beyond her ability to control.  Her service acumen was definitely superior to the hotel’s subpar conditions.I went to my car and booked a room in the Holiday Inn Express 5 minutes away. The interesting this is when I researched the property prior to booking, I saw nothing but great ratings on the hotel’s website, which makes me wonder if management only posts the good ones, as I am sure I am not the only guest that had this complaint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r384813602-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>384813602</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>The best ever</t>
+  </si>
+  <si>
+    <t>Checking in went really smooth and quick, which I highly appreciate after a long trip. Housekeeping actually cleans your room, which surprises me as other hotels not always do. Staff is just outstanding, finally a hotel where they are focused on keeping their guests happy.They surprised me every single day with how great they are, I am already looking forward to come back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Adam P, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded June 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2016</t>
+  </si>
+  <si>
+    <t>Checking in went really smooth and quick, which I highly appreciate after a long trip. Housekeeping actually cleans your room, which surprises me as other hotels not always do. Staff is just outstanding, finally a hotel where they are focused on keeping their guests happy.They surprised me every single day with how great they are, I am already looking forward to come back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r373080440-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>373080440</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>The room was dirty I'm stay one night because of the rain was tire driving by the rain but when I woke up when to the rest room find up the toilet &amp; sink was dirty I bring to the front desk attention which I have to wait almost 5 minutes to get somebody attention I'm not happy the way the address the issue they offer me points on my rewards card but that was not the pointMoreShow less</t>
+  </si>
+  <si>
+    <t>Adam P, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>The room was dirty I'm stay one night because of the rain was tire driving by the rain but when I woke up when to the rest room find up the toilet &amp; sink was dirty I bring to the front desk attention which I have to wait almost 5 minutes to get somebody attention I'm not happy the way the address the issue they offer me points on my rewards card but that was not the pointMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r345808779-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>345808779</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Excellent last minute surprise!!</t>
+  </si>
+  <si>
+    <t>Went to Houston for the weekend and got a last minute change that I needed a hotel to stay at. Went on Priceline and found a cheap rate.I was glad that the result was this Courtyard Marriott.I got there around 1 AM and I felt safe with this location.There are Residence Inn and Homewood Suites next door.Once I walked in the front door, I was greeted by Ms. Patricia.She was the reason why I wrote this review.You don't expect to be greeted by someone so nice and full of energy at 1AM when checking in at a hotel, but Ms Patricia did just that!She was very nice, full of energy, very warm and welcoming.She checked me in, gave me the key and off we went to the room.Room was very clean and spacious.Remember to ask King Bed if you need 1.Because they have 2 double bed, not queen size.All and all, it was great stay.I was glad that I got this hotel from Priceline.Will definitely stay at this Hotel again.I just wish all other hotels I'm staying at in the future has someone like Ms. Patricia working at their front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Adam P, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Went to Houston for the weekend and got a last minute change that I needed a hotel to stay at. Went on Priceline and found a cheap rate.I was glad that the result was this Courtyard Marriott.I got there around 1 AM and I felt safe with this location.There are Residence Inn and Homewood Suites next door.Once I walked in the front door, I was greeted by Ms. Patricia.She was the reason why I wrote this review.You don't expect to be greeted by someone so nice and full of energy at 1AM when checking in at a hotel, but Ms Patricia did just that!She was very nice, full of energy, very warm and welcoming.She checked me in, gave me the key and off we went to the room.Room was very clean and spacious.Remember to ask King Bed if you need 1.Because they have 2 double bed, not queen size.All and all, it was great stay.I was glad that I got this hotel from Priceline.Will definitely stay at this Hotel again.I just wish all other hotels I'm staying at in the future has someone like Ms. Patricia working at their front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r337951506-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>337951506</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>What I expected!</t>
+  </si>
+  <si>
+    <t>Location is very good -just off highway 59 and close to amenities. Rooms are what one can expect of the Marriott chain -good sized, clean and fresh. The bed was very good -firm, but not too hard and the beddings were fresh-smelling and clean just as the bathroom was as well. There is an outdoor pool, and inside, a bistro where one can order food and drinks. Although it is close to a busy highway, the noise level is barely heard. We had no problem with wi-fi and it was adequate for our surfing needs. The staff is cordial and helpful and our evening was quiet and restful. We felt rested after a long day on the road!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Adam P, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded January 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2016</t>
+  </si>
+  <si>
+    <t>Location is very good -just off highway 59 and close to amenities. Rooms are what one can expect of the Marriott chain -good sized, clean and fresh. The bed was very good -firm, but not too hard and the beddings were fresh-smelling and clean just as the bathroom was as well. There is an outdoor pool, and inside, a bistro where one can order food and drinks. Although it is close to a busy highway, the noise level is barely heard. We had no problem with wi-fi and it was adequate for our surfing needs. The staff is cordial and helpful and our evening was quiet and restful. We felt rested after a long day on the road!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r333176621-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>333176621</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>Very nice hotel and everythong went smooth. Rooms were decently nice not best one ive been in but nice. And restroom was good size and nize as well would recommend staying here again but wasnt a big fan of the breakfast options at the cafe. Ended up with cereal after the first morning MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice hotel and everythong went smooth. Rooms were decently nice not best one ive been in but nice. And restroom was good size and nize as well would recommend staying here again but wasnt a big fan of the breakfast options at the cafe. Ended up with cereal after the first morning More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r330245026-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>330245026</t>
+  </si>
+  <si>
+    <t>12/01/2015</t>
+  </si>
+  <si>
+    <t>The smell is bad</t>
+  </si>
+  <si>
+    <t>I checked in to a ground floor unit at first but I asked the check in person to come smell the room and there was the hanging odor disks in the room and it smelled bad. The second room is no better. The rating have to be rated by the hotel there is no way this place is a 4.5 Smells , Bugs this is bad!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Adam P, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded December 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2015</t>
+  </si>
+  <si>
+    <t>I checked in to a ground floor unit at first but I asked the check in person to come smell the room and there was the hanging odor disks in the room and it smelled bad. The second room is no better. The rating have to be rated by the hotel there is no way this place is a 4.5 Smells , Bugs this is bad!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r327856336-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>327856336</t>
+  </si>
+  <si>
+    <t>11/19/2015</t>
+  </si>
+  <si>
+    <t>Nice Staff, fine accommodations...</t>
+  </si>
+  <si>
+    <t>The front desk and cleaning staff were all very nice. Front desk manager on duty when I came in was incredibly kind. Had a slight mix-up with reservation at the Marriott across the street as a result of group sales, from my perspective a small issue. The room was nicely appointed, medium-sized but not too small with a usable desk. Big flat panel TV was along side the wall so it needed to turn whether you were sitting st the desk on in bed, obviously an afterthought. Bathroom was very compact. No shaving mirror, sadly, so I shaved into the closer mirror where I could see better. For breakfast I expected a complimentary setup, but it was not the case, instead there is a Starbucks with a half-dozen breakfast options. Not sure why some Courtyards include breakfast and others don't. Overall, it was fine accommodations near the business location, and would stay here again for business proximity to work.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Adam P, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded December 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2015</t>
+  </si>
+  <si>
+    <t>The front desk and cleaning staff were all very nice. Front desk manager on duty when I came in was incredibly kind. Had a slight mix-up with reservation at the Marriott across the street as a result of group sales, from my perspective a small issue. The room was nicely appointed, medium-sized but not too small with a usable desk. Big flat panel TV was along side the wall so it needed to turn whether you were sitting st the desk on in bed, obviously an afterthought. Bathroom was very compact. No shaving mirror, sadly, so I shaved into the closer mirror where I could see better. For breakfast I expected a complimentary setup, but it was not the case, instead there is a Starbucks with a half-dozen breakfast options. Not sure why some Courtyards include breakfast and others don't. Overall, it was fine accommodations near the business location, and would stay here again for business proximity to work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r305538640-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>305538640</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Good stay in Stafford area</t>
+  </si>
+  <si>
+    <t>We spent more than a week at the Courtyard Marriott together with my family. The room is reasonably comfortable and spacious. Microwave is provided in the room which is very handy for family. Laundry machine is also provided for public use - another great features if you have baby staying with you (or even for yourselves). What I like best from the hotel is about the staff who are very friendly and since it's small hotel, they are also very personal. Good locations as they are close to restaurants. You can hear road noise from the room but not so loud that will disturb you.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r289357788-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>289357788</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Peaceful</t>
+  </si>
+  <si>
+    <t>Lovely room, quiet and peaceful, lots of amenities as well as restaurant which is open for breakfast and dinner.  Starbucks coffee available to purchase in lobby.  My only complaint is that the parking is not ample.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r284783722-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>284783722</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Very Nice Stay</t>
+  </si>
+  <si>
+    <t>I spent a week at the Courtyard Marriott on business, and I found the hotel to be comfortable, clean, and the staff to be friendly and accommodating. When I called to confirm my reservation ahead of time, I asked about whether the room I was in had a refrigerator or a microwave. I was told that it didn't, but since I was going to be staying for several days, they would gladly upgrade me for free.
+Upon arriving, the front desk clerk was very friendly and honored the upgrade agreement. I found the room to be very nicely appointed and comfortable, and very large! The only downside to the room was that due to the side of the building I was on, there was a lot of road noise from the highway.
+The restaurant serves Starbucks coffee, and made my drinks perfectly every morning. They also loaned me a bowl and a set of silverware upon request to make salads in my room with. Everyone was very friendly!
+The only negatives about the property are parking and the size of their gym.  The parking lot is small, and you can easily end up in an inconvenient spot to a door.  And the gym was tiny, and not well equipped.  Three cardio machines, a dumbbell rack, and a bench in a room the size of a closet, does not a gym make.
+All in all, the Courtyard Marriott was a really...I spent a week at the Courtyard Marriott on business, and I found the hotel to be comfortable, clean, and the staff to be friendly and accommodating. When I called to confirm my reservation ahead of time, I asked about whether the room I was in had a refrigerator or a microwave. I was told that it didn't, but since I was going to be staying for several days, they would gladly upgrade me for free.Upon arriving, the front desk clerk was very friendly and honored the upgrade agreement. I found the room to be very nicely appointed and comfortable, and very large! The only downside to the room was that due to the side of the building I was on, there was a lot of road noise from the highway.The restaurant serves Starbucks coffee, and made my drinks perfectly every morning. They also loaned me a bowl and a set of silverware upon request to make salads in my room with. Everyone was very friendly!The only negatives about the property are parking and the size of their gym.  The parking lot is small, and you can easily end up in an inconvenient spot to a door.  And the gym was tiny, and not well equipped.  Three cardio machines, a dumbbell rack, and a bench in a room the size of a closet, does not a gym make.All in all, the Courtyard Marriott was a really good business stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I spent a week at the Courtyard Marriott on business, and I found the hotel to be comfortable, clean, and the staff to be friendly and accommodating. When I called to confirm my reservation ahead of time, I asked about whether the room I was in had a refrigerator or a microwave. I was told that it didn't, but since I was going to be staying for several days, they would gladly upgrade me for free.
+Upon arriving, the front desk clerk was very friendly and honored the upgrade agreement. I found the room to be very nicely appointed and comfortable, and very large! The only downside to the room was that due to the side of the building I was on, there was a lot of road noise from the highway.
+The restaurant serves Starbucks coffee, and made my drinks perfectly every morning. They also loaned me a bowl and a set of silverware upon request to make salads in my room with. Everyone was very friendly!
+The only negatives about the property are parking and the size of their gym.  The parking lot is small, and you can easily end up in an inconvenient spot to a door.  And the gym was tiny, and not well equipped.  Three cardio machines, a dumbbell rack, and a bench in a room the size of a closet, does not a gym make.
+All in all, the Courtyard Marriott was a really...I spent a week at the Courtyard Marriott on business, and I found the hotel to be comfortable, clean, and the staff to be friendly and accommodating. When I called to confirm my reservation ahead of time, I asked about whether the room I was in had a refrigerator or a microwave. I was told that it didn't, but since I was going to be staying for several days, they would gladly upgrade me for free.Upon arriving, the front desk clerk was very friendly and honored the upgrade agreement. I found the room to be very nicely appointed and comfortable, and very large! The only downside to the room was that due to the side of the building I was on, there was a lot of road noise from the highway.The restaurant serves Starbucks coffee, and made my drinks perfectly every morning. They also loaned me a bowl and a set of silverware upon request to make salads in my room with. Everyone was very friendly!The only negatives about the property are parking and the size of their gym.  The parking lot is small, and you can easily end up in an inconvenient spot to a door.  And the gym was tiny, and not well equipped.  Three cardio machines, a dumbbell rack, and a bench in a room the size of a closet, does not a gym make.All in all, the Courtyard Marriott was a really good business stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r277696140-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>277696140</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>I stayed here one night. The rooms were modern, up to date and clean. The bed was very comfortable. I did not eat or go to the bar. The traffic was terrible in the morning getting to highway 59. This is not the hotel's fault but it sure was a major pain in the you know what. I left the hotel at 7:15 am and the service road and 59 were both a parking lot. Leave early!ThanksMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>sridenour, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded June 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here one night. The rooms were modern, up to date and clean. The bed was very comfortable. I did not eat or go to the bar. The traffic was terrible in the morning getting to highway 59. This is not the hotel's fault but it sure was a major pain in the you know what. I left the hotel at 7:15 am and the service road and 59 were both a parking lot. Leave early!ThanksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r270749126-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>270749126</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>A very nice place to stay</t>
+  </si>
+  <si>
+    <t>This is a very nice place to stay in the Sugarland area.  Krystal, the front desk manager, is very pleasant and accommodating.  The outside pool and spa are very nice.  The rooms are very comfortable.  The bistro on the first floor is very nice and the staff are very pleasant.  A great experience overall.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>sridenour, General Manager at Courtyard Houston Sugar Land, responded to this reviewResponded May 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2015</t>
+  </si>
+  <si>
+    <t>This is a very nice place to stay in the Sugarland area.  Krystal, the front desk manager, is very pleasant and accommodating.  The outside pool and spa are very nice.  The rooms are very comfortable.  The bistro on the first floor is very nice and the staff are very pleasant.  A great experience overall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r265163830-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>265163830</t>
+  </si>
+  <si>
+    <t>04/11/2015</t>
+  </si>
+  <si>
+    <t>Highly trained staff, nice rooms, comfy beds</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a week or so because of a death in the family.  The staff here is expert, each and every one of them.  
+The women who cleaned the rooms did so completely, with unexpected touches.  They laid hand towels by the sink and carefully laid my scattered belongings in neat rows.  They straightened without misplacing anything.  They always smiled and said good morning when we passed them in the hallway.
+The front desk crew acted professionally, but with a Texas friendly manner.  They quickly added rooms when our family came in and were able to place us all in a quiet section of the hotel, per our wishes, considering the sad occasion that brought us together.  They promptly dealt with providing extra pillows and sending faxes for us when needed.  They always greeted us when we entered, welcoming us back, and wished us a good day when we left.
+The bistro was staffed by a pretty cool gentleman who was unfailingly polite and cheerful.  We had breakfast there a few times during our stay and he was wonderful on each occasion, to us and to other people he waited on.  Another of their staff, not sure who she was, swooped by and grabbed our dishes once she was sure we were done eating.  I thought she was a hotel guest because she was dressed up but apparently she was one of the managers or something...We stayed at this hotel for a week or so because of a death in the family.  The staff here is expert, each and every one of them.  The women who cleaned the rooms did so completely, with unexpected touches.  They laid hand towels by the sink and carefully laid my scattered belongings in neat rows.  They straightened without misplacing anything.  They always smiled and said good morning when we passed them in the hallway.The front desk crew acted professionally, but with a Texas friendly manner.  They quickly added rooms when our family came in and were able to place us all in a quiet section of the hotel, per our wishes, considering the sad occasion that brought us together.  They promptly dealt with providing extra pillows and sending faxes for us when needed.  They always greeted us when we entered, welcoming us back, and wished us a good day when we left.The bistro was staffed by a pretty cool gentleman who was unfailingly polite and cheerful.  We had breakfast there a few times during our stay and he was wonderful on each occasion, to us and to other people he waited on.  Another of their staff, not sure who she was, swooped by and grabbed our dishes once she was sure we were done eating.  I thought she was a hotel guest because she was dressed up but apparently she was one of the managers or something but she didn't let that stop her from clearing our dishes.  The beds were comfortable and the pillows were soft and fluffy.  I notified them that the ice maker wasn't working and very shortly after I saw the maintenance man working on it.  It was promptly fixed.  Thank God the a/c worked great.  I've lost my Texas resistance to heat and humidity.  To finalize this review, I just want to say that if you can stay here, do it.  Downtown is 20 minutes away, as is the medical center.  The Galleria is even less.  There are many restaurants nearby, and a Walmart too.  It's outside of Beltway 8 so is less chaotic.  If you fly into Hobby, this hotel is just about 20 minutes away.  If you fly into IAH, it's less convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded April 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a week or so because of a death in the family.  The staff here is expert, each and every one of them.  
+The women who cleaned the rooms did so completely, with unexpected touches.  They laid hand towels by the sink and carefully laid my scattered belongings in neat rows.  They straightened without misplacing anything.  They always smiled and said good morning when we passed them in the hallway.
+The front desk crew acted professionally, but with a Texas friendly manner.  They quickly added rooms when our family came in and were able to place us all in a quiet section of the hotel, per our wishes, considering the sad occasion that brought us together.  They promptly dealt with providing extra pillows and sending faxes for us when needed.  They always greeted us when we entered, welcoming us back, and wished us a good day when we left.
+The bistro was staffed by a pretty cool gentleman who was unfailingly polite and cheerful.  We had breakfast there a few times during our stay and he was wonderful on each occasion, to us and to other people he waited on.  Another of their staff, not sure who she was, swooped by and grabbed our dishes once she was sure we were done eating.  I thought she was a hotel guest because she was dressed up but apparently she was one of the managers or something...We stayed at this hotel for a week or so because of a death in the family.  The staff here is expert, each and every one of them.  The women who cleaned the rooms did so completely, with unexpected touches.  They laid hand towels by the sink and carefully laid my scattered belongings in neat rows.  They straightened without misplacing anything.  They always smiled and said good morning when we passed them in the hallway.The front desk crew acted professionally, but with a Texas friendly manner.  They quickly added rooms when our family came in and were able to place us all in a quiet section of the hotel, per our wishes, considering the sad occasion that brought us together.  They promptly dealt with providing extra pillows and sending faxes for us when needed.  They always greeted us when we entered, welcoming us back, and wished us a good day when we left.The bistro was staffed by a pretty cool gentleman who was unfailingly polite and cheerful.  We had breakfast there a few times during our stay and he was wonderful on each occasion, to us and to other people he waited on.  Another of their staff, not sure who she was, swooped by and grabbed our dishes once she was sure we were done eating.  I thought she was a hotel guest because she was dressed up but apparently she was one of the managers or something but she didn't let that stop her from clearing our dishes.  The beds were comfortable and the pillows were soft and fluffy.  I notified them that the ice maker wasn't working and very shortly after I saw the maintenance man working on it.  It was promptly fixed.  Thank God the a/c worked great.  I've lost my Texas resistance to heat and humidity.  To finalize this review, I just want to say that if you can stay here, do it.  Downtown is 20 minutes away, as is the medical center.  The Galleria is even less.  There are many restaurants nearby, and a Walmart too.  It's outside of Beltway 8 so is less chaotic.  If you fly into Hobby, this hotel is just about 20 minutes away.  If you fly into IAH, it's less convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r254968643-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>254968643</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Solid- Not Spectacular</t>
+  </si>
+  <si>
+    <t>This was a decent Hotel with a nice lobby and adequate rooms. it was perfect for the business traveler looking for a warm bed and a comfortable lobby with on-site food &amp; drink options.  The lobby and cafe were nice and the staff was very nice. There are very few frills here, but it is comfortable. The exercise room/gym was about the size of a walk-in closet at home. The outdoor pool was small, too. The hot tub had handicap accessibility in the form of a lift chair. it was a solid hotel at a fairly good price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded February 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2015</t>
+  </si>
+  <si>
+    <t>This was a decent Hotel with a nice lobby and adequate rooms. it was perfect for the business traveler looking for a warm bed and a comfortable lobby with on-site food &amp; drink options.  The lobby and cafe were nice and the staff was very nice. There are very few frills here, but it is comfortable. The exercise room/gym was about the size of a walk-in closet at home. The outdoor pool was small, too. The hot tub had handicap accessibility in the form of a lift chair. it was a solid hotel at a fairly good price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r250301489-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>250301489</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>The skeptic is a believer!</t>
+  </si>
+  <si>
+    <t>I am one that must truly be impressed ( or disgusted) to feel compelled to take time out of a busy schedule to write a review and in this case, I AM IMPRESSED! Thank you staff and management of Courtyard by Marriott Houston Sugar Land. It is very obvious that you indeed 'get it'. This property excelled in getting the variables that they could control right. Every customer is greeted upon lobby entry. The lobby area was beaming, bright, clean and well organized. The Feng Shui was good with location placement of the Bistro area and the 'guest' business center. The Bistro items were fresh and nicely prepared and the menu selection was not bad. The room was clean and the room amenities shockingly did not display the wear and tear that is inherent with the peripatetic nature of lodging multitudes of guests. I give this accurate and genuine review from the standpoint of the average american consumer. Having said that, I must articulate why this review progressed from very good to excellent. Quite simply, the staff. Kaylyn was wonderful and cheerfully assisted at every opportunity. Richard was a fireball of enthusiasm who displayed warmth and blissfulness that was contagious and greatly appreciated. I'm not sure where Courtyard Sugarland ranks with TripAdvisor but they are number one in my book. Thanks for the excellent customer service!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded January 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2015</t>
+  </si>
+  <si>
+    <t>I am one that must truly be impressed ( or disgusted) to feel compelled to take time out of a busy schedule to write a review and in this case, I AM IMPRESSED! Thank you staff and management of Courtyard by Marriott Houston Sugar Land. It is very obvious that you indeed 'get it'. This property excelled in getting the variables that they could control right. Every customer is greeted upon lobby entry. The lobby area was beaming, bright, clean and well organized. The Feng Shui was good with location placement of the Bistro area and the 'guest' business center. The Bistro items were fresh and nicely prepared and the menu selection was not bad. The room was clean and the room amenities shockingly did not display the wear and tear that is inherent with the peripatetic nature of lodging multitudes of guests. I give this accurate and genuine review from the standpoint of the average american consumer. Having said that, I must articulate why this review progressed from very good to excellent. Quite simply, the staff. Kaylyn was wonderful and cheerfully assisted at every opportunity. Richard was a fireball of enthusiasm who displayed warmth and blissfulness that was contagious and greatly appreciated. I'm not sure where Courtyard Sugarland ranks with TripAdvisor but they are number one in my book. Thanks for the excellent customer service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r249375529-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>249375529</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>Noisy highway traffic. But friendly staff</t>
+  </si>
+  <si>
+    <t>The hotel room has a lot of traffic noise from nearby highway.     I asked to move to another room and front desk was friendly and moved me farther from highway, but the noise was still loud.  Walls need to be insulated.  Need triple pane windows. And perhaps plant trees or equivalent to block noise. Gym is small.  Treadmill squeaks,  needs lubrication. Bistro is good. Was understaffed for breakfast first day, but plenty of help (4x) the next day. Suite rooms have awkward layout. Very good staff.  Poor facility. MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded January 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2015</t>
+  </si>
+  <si>
+    <t>The hotel room has a lot of traffic noise from nearby highway.     I asked to move to another room and front desk was friendly and moved me farther from highway, but the noise was still loud.  Walls need to be insulated.  Need triple pane windows. And perhaps plant trees or equivalent to block noise. Gym is small.  Treadmill squeaks,  needs lubrication. Bistro is good. Was understaffed for breakfast first day, but plenty of help (4x) the next day. Suite rooms have awkward layout. Very good staff.  Poor facility. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r243791825-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>243791825</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>Very nice hotel in Sugar Land part of houston</t>
+  </si>
+  <si>
+    <t>I recently stayed here for 4 days. I had a room on the side of the highway however it was pretty quiet. Many people had said the room near highway will be quite loud however it wasn't the case. Breakfast is below average so if you are looking for a good breakfast or even thinking about paying for it with your room then skip this place. However, LOCATION of this hotel is great!! Waffle house is quite close for a great not so expensive break and around that hotel you can find pretty much any store. 12 mins from a mall too. Rooms and cleanliness was good. Staff seemed very polite and it does have a starbucks coffee in lounge. It's not a Starbucks but they provide starbucks coffee so that was nice. I would definitely stay here if i was in sugarland again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded December 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed here for 4 days. I had a room on the side of the highway however it was pretty quiet. Many people had said the room near highway will be quite loud however it wasn't the case. Breakfast is below average so if you are looking for a good breakfast or even thinking about paying for it with your room then skip this place. However, LOCATION of this hotel is great!! Waffle house is quite close for a great not so expensive break and around that hotel you can find pretty much any store. 12 mins from a mall too. Rooms and cleanliness was good. Staff seemed very polite and it does have a starbucks coffee in lounge. It's not a Starbucks but they provide starbucks coffee so that was nice. I would definitely stay here if i was in sugarland again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r239857169-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>239857169</t>
+  </si>
+  <si>
+    <t>11/14/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>EXCELLENT ROOM..just noisy.  Our room had excellent room upstairs with balcony but traffic noise and pounding music kept us from getting too much sleep.  We kept TV on.  Other than that staff was courteous, room was clean and Bistro downstairs was convenient with excellent food.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded November 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2014</t>
+  </si>
+  <si>
+    <t>EXCELLENT ROOM..just noisy.  Our room had excellent room upstairs with balcony but traffic noise and pounding music kept us from getting too much sleep.  We kept TV on.  Other than that staff was courteous, room was clean and Bistro downstairs was convenient with excellent food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r238594348-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>238594348</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>I stayed here because I had a conference at a sister hotel and they had sold out of rooms... This hotel had very friendly and helpful staff plus the Bistro (hot food items- made to order) was reasonably priced which resulted in me not having to go search for somewhere to eat. The location was convenient and there was plenty of parking.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded November 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here because I had a conference at a sister hotel and they had sold out of rooms... This hotel had very friendly and helpful staff plus the Bistro (hot food items- made to order) was reasonably priced which resulted in me not having to go search for somewhere to eat. The location was convenient and there was plenty of parking.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r225994757-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>225994757</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Friendly and efficient hotel</t>
+  </si>
+  <si>
+    <t>The Marriot Courtyard in Stafford is convenient for Sugar Land. The hotel is small, but has good facilities. The breakfast service is good and there are two meeting rooms which can each take about 20 people in comfort. The thing that makes this a pleasant place to stay is the staff who are efficient but really friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2014</t>
+  </si>
+  <si>
+    <t>The Marriot Courtyard in Stafford is convenient for Sugar Land. The hotel is small, but has good facilities. The breakfast service is good and there are two meeting rooms which can each take about 20 people in comfort. The thing that makes this a pleasant place to stay is the staff who are efficient but really friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r224471818-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>224471818</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>Business Stay...Very Good</t>
+  </si>
+  <si>
+    <t>I moved to this hotel after one night at the Springhill in Pearland. Much better ! Good business setting in reception area.  Very courteous and friendly.  Much more up to date.  Offered me free Starbucks....!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded August 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2014</t>
+  </si>
+  <si>
+    <t>I moved to this hotel after one night at the Springhill in Pearland. Much better ! Good business setting in reception area.  Very courteous and friendly.  Much more up to date.  Offered me free Starbucks....!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r224441253-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>224441253</t>
+  </si>
+  <si>
+    <t>Everything I expect from a Courtyard</t>
+  </si>
+  <si>
+    <t>Could be that the night before, I had a miserable experience in a different hotel, but from check-in to check-out, everything about this hotel was spot on.  Lobby well appointed (in modern Courtyard style), check-in staff polite, room was clean, neat and didn't smell.  Area was quite nice, excellent food within walking distance.  Would definitely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Could be that the night before, I had a miserable experience in a different hotel, but from check-in to check-out, everything about this hotel was spot on.  Lobby well appointed (in modern Courtyard style), check-in staff polite, room was clean, neat and didn't smell.  Area was quite nice, excellent food within walking distance.  Would definitely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r211736456-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>211736456</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>Sugarland,  as sweet as it sounds</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for business.  Kaylyn did everything she could to make my stay enjoyable.  Very upbeat and seemed happy to help everyone.  Bistro food was nice.  I ate breakfast &amp; had good Starbucks coffee.  Plenty of restaurants within walking distance or a short drive.    Seems a little pricy but, all the surrounding hotels are priced about the same.  I will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded June 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2014</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for business.  Kaylyn did everything she could to make my stay enjoyable.  Very upbeat and seemed happy to help everyone.  Bistro food was nice.  I ate breakfast &amp; had good Starbucks coffee.  Plenty of restaurants within walking distance or a short drive.    Seems a little pricy but, all the surrounding hotels are priced about the same.  I will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r208192024-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>208192024</t>
+  </si>
+  <si>
+    <t>05/31/2014</t>
+  </si>
+  <si>
+    <t>Everything in A Quality Hotel you could ever desire</t>
+  </si>
+  <si>
+    <t>I recently stayed at this fine Hotel during an extended travel. I booked this Hotel because of the reasonable cost over other similar Hotels in the area. I was simply amazed at the quality and exceptional service and comfort for the Price I paid.
+The Hotel was very easily accessible from Hgh 59 .I was immediately greeted by a very personable  receptionist who offered to make my time there as enjoyable as possible. The Room was large, and VERY CLEAN.I opted for the King Bed and wasn't disappointed in the comfort of the bed, but must add that I found the pillows a little too firm for my preference.
+My particular room had a sofa as well which made it more comfortable for my stay. The receptionist was very accommodating, professional and very friendly. She spoke to me every time I entered the Hotel.She was very astute in insuring that my stay was excellent in every way. There is a Bistro located within the Hotel for Breakfast options as well as Dinner, although it's menu is very limited but adequate for anyone desiring something to eat, but for whatever reason doesn't desire to leave the Hotel.
+There were some excellent dining options available near the Hotel as well. I would recommend the All American Buffet just before the Hotel on the access road. it was not your typical buffet as  the restaurant was very clean and nicely furnished. The Buffet...I recently stayed at this fine Hotel during an extended travel. I booked this Hotel because of the reasonable cost over other similar Hotels in the area. I was simply amazed at the quality and exceptional service and comfort for the Price I paid. The Hotel was very easily accessible from Hgh 59 .I was immediately greeted by a very personable  receptionist who offered to make my time there as enjoyable as possible. The Room was large, and VERY CLEAN.I opted for the King Bed and wasn't disappointed in the comfort of the bed, but must add that I found the pillows a little too firm for my preference.My particular room had a sofa as well which made it more comfortable for my stay. The receptionist was very accommodating, professional and very friendly. She spoke to me every time I entered the Hotel.She was very astute in insuring that my stay was excellent in every way. There is a Bistro located within the Hotel for Breakfast options as well as Dinner, although it's menu is very limited but adequate for anyone desiring something to eat, but for whatever reason doesn't desire to leave the Hotel.There were some excellent dining options available near the Hotel as well. I would recommend the All American Buffet just before the Hotel on the access road. it was not your typical buffet as  the restaurant was very clean and nicely furnished. The Buffet had about anything you could ever desire and by what I ate, was excellently prepared. I would highly recommend this Hotel to any traveler as it excels in Comfort, Service and Value.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed at this fine Hotel during an extended travel. I booked this Hotel because of the reasonable cost over other similar Hotels in the area. I was simply amazed at the quality and exceptional service and comfort for the Price I paid.
+The Hotel was very easily accessible from Hgh 59 .I was immediately greeted by a very personable  receptionist who offered to make my time there as enjoyable as possible. The Room was large, and VERY CLEAN.I opted for the King Bed and wasn't disappointed in the comfort of the bed, but must add that I found the pillows a little too firm for my preference.
+My particular room had a sofa as well which made it more comfortable for my stay. The receptionist was very accommodating, professional and very friendly. She spoke to me every time I entered the Hotel.She was very astute in insuring that my stay was excellent in every way. There is a Bistro located within the Hotel for Breakfast options as well as Dinner, although it's menu is very limited but adequate for anyone desiring something to eat, but for whatever reason doesn't desire to leave the Hotel.
+There were some excellent dining options available near the Hotel as well. I would recommend the All American Buffet just before the Hotel on the access road. it was not your typical buffet as  the restaurant was very clean and nicely furnished. The Buffet...I recently stayed at this fine Hotel during an extended travel. I booked this Hotel because of the reasonable cost over other similar Hotels in the area. I was simply amazed at the quality and exceptional service and comfort for the Price I paid. The Hotel was very easily accessible from Hgh 59 .I was immediately greeted by a very personable  receptionist who offered to make my time there as enjoyable as possible. The Room was large, and VERY CLEAN.I opted for the King Bed and wasn't disappointed in the comfort of the bed, but must add that I found the pillows a little too firm for my preference.My particular room had a sofa as well which made it more comfortable for my stay. The receptionist was very accommodating, professional and very friendly. She spoke to me every time I entered the Hotel.She was very astute in insuring that my stay was excellent in every way. There is a Bistro located within the Hotel for Breakfast options as well as Dinner, although it's menu is very limited but adequate for anyone desiring something to eat, but for whatever reason doesn't desire to leave the Hotel.There were some excellent dining options available near the Hotel as well. I would recommend the All American Buffet just before the Hotel on the access road. it was not your typical buffet as  the restaurant was very clean and nicely furnished. The Buffet had about anything you could ever desire and by what I ate, was excellently prepared. I would highly recommend this Hotel to any traveler as it excels in Comfort, Service and Value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r201443273-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>201443273</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>Recently spent four nights here and found the staff to be attentive, courteous and extremely friendly.  The clean comfortable rooms were a welcome sight each evening.  The staff (especially Krystal Meyer) was so eager to please and went well beyond what would be expected to see that all of our needs were met and our questions answered.  We kept our 2 and 3 year old grandsons in our room one night and the staff was so quick to provide everything we needed to accommodate the little fellows.  This is our hotel of choice when in the Houston/ Sugarland area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded April 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2014</t>
+  </si>
+  <si>
+    <t>Recently spent four nights here and found the staff to be attentive, courteous and extremely friendly.  The clean comfortable rooms were a welcome sight each evening.  The staff (especially Krystal Meyer) was so eager to please and went well beyond what would be expected to see that all of our needs were met and our questions answered.  We kept our 2 and 3 year old grandsons in our room one night and the staff was so quick to provide everything we needed to accommodate the little fellows.  This is our hotel of choice when in the Houston/ Sugarland area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r193559626-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>193559626</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>I am a big fan of Marriott Hotels. When I first arrived I was welcomed and checked in. The staff were very friendly and welcoming. Something that I have come to expect with the marriott name. The gym was surprisingly large and I love the new bistro. Weill definately stay here again. My only complaint is that the fan in my bathroom would not turn off. I had the front desk look into it. They told me that they never turn off. Seems strange and not efficient to have an exhaust fan that never turns off and sucks Heat and AC out of the building.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded February 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2014</t>
+  </si>
+  <si>
+    <t>I am a big fan of Marriott Hotels. When I first arrived I was welcomed and checked in. The staff were very friendly and welcoming. Something that I have come to expect with the marriott name. The gym was surprisingly large and I love the new bistro. Weill definately stay here again. My only complaint is that the fan in my bathroom would not turn off. I had the front desk look into it. They told me that they never turn off. Seems strange and not efficient to have an exhaust fan that never turns off and sucks Heat and AC out of the building.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r191195593-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>191195593</t>
+  </si>
+  <si>
+    <t>01/17/2014</t>
+  </si>
+  <si>
+    <t>No coffee service?</t>
+  </si>
+  <si>
+    <t>As a Marriott Platinum Elite member I know all their brands well, and I'll first say I'm not a big fan of the new Bistro approach at Courtyards, so I choose them less these days.  This hotel was fine, although it's a bit hard to find off the freeway, but the reason for my 'average' rating was that I went looking for coffee service in the morning and found none.  Even Motel 6 has free coffee in the morning!  I know the upscale places don't, but all the mid-level ones, in the Courtyard category, do.  I assume I was expected to buy a $4 Starbucks cup--but I was not about to do that.  The little things do sometimes matter.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2014</t>
+  </si>
+  <si>
+    <t>As a Marriott Platinum Elite member I know all their brands well, and I'll first say I'm not a big fan of the new Bistro approach at Courtyards, so I choose them less these days.  This hotel was fine, although it's a bit hard to find off the freeway, but the reason for my 'average' rating was that I went looking for coffee service in the morning and found none.  Even Motel 6 has free coffee in the morning!  I know the upscale places don't, but all the mid-level ones, in the Courtyard category, do.  I assume I was expected to buy a $4 Starbucks cup--but I was not about to do that.  The little things do sometimes matter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r190197447-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>190197447</t>
+  </si>
+  <si>
+    <t>01/08/2014</t>
+  </si>
+  <si>
+    <t>A very pleasant stay</t>
+  </si>
+  <si>
+    <t>I stayed here for work for 3 days.  The staff remembered my name and addressed me as such every morning and evening.  I thoroughly enjoyed the Bistro - the fresh fruit was great!  The ONLY downside I could name about the hotel would be the traffic noise - I was in a highway-facing room, so it was to be expected.  I didn't think to ask to change rooms, but will definitely do so next time.  The traffic noise is outside of the hotel's control, so I don't factor it into my rating.  The reason for 4/5 is the fitness center.  There was not much of one at all.  The hotel offers complimentary Lifetime Fitness memberships for your stay, however one of the conveniences of a hotel experience is not having to leave the hotel for certain things: I would think excercise would be appropriately one of them.  I would like to see either a larger space to work out, or a few more machines/excercise balls/bands, etc - there were two treadmills and a free-weights set.  That's it.  Overall, a great stay and I highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded January 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for work for 3 days.  The staff remembered my name and addressed me as such every morning and evening.  I thoroughly enjoyed the Bistro - the fresh fruit was great!  The ONLY downside I could name about the hotel would be the traffic noise - I was in a highway-facing room, so it was to be expected.  I didn't think to ask to change rooms, but will definitely do so next time.  The traffic noise is outside of the hotel's control, so I don't factor it into my rating.  The reason for 4/5 is the fitness center.  There was not much of one at all.  The hotel offers complimentary Lifetime Fitness memberships for your stay, however one of the conveniences of a hotel experience is not having to leave the hotel for certain things: I would think excercise would be appropriately one of them.  I would like to see either a larger space to work out, or a few more machines/excercise balls/bands, etc - there were two treadmills and a free-weights set.  That's it.  Overall, a great stay and I highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r180350754-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>180350754</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>Updated hotel, ok location</t>
+  </si>
+  <si>
+    <t>This is a nice updated Courtyard, modern lobby and rooms.  We booked a slightly larger 2 bed, which included a lounge chair in the extra space.  Location:  Property is neighboring some other Marriott hotel brands and fairly secluded, although the freeway noise is not avoidable, even on the opposite side.  The Fountains shopping center across the freeway is nice for entertainment and food.  On the downside, having lived in this area, I advise caution when out at night, especially on foot.  While this immediate area has been commercialized, there are some not-so-good areas close by.Room:  Pretty standard room, but nicely updated.  Bathroom size is large and separated from vanity by a door.  However, this door and the entrance door have shifted, causing door latches and deadbolt to misalign.  I had to really pull up on the door hard to latch the deadbolt, and the bathroom would never lock.Pros:Clean, updated, friendly staff, good amenities.Cons:Freeway noise, neighboring areas (safety), door latches not aligned well.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2013</t>
+  </si>
+  <si>
+    <t>This is a nice updated Courtyard, modern lobby and rooms.  We booked a slightly larger 2 bed, which included a lounge chair in the extra space.  Location:  Property is neighboring some other Marriott hotel brands and fairly secluded, although the freeway noise is not avoidable, even on the opposite side.  The Fountains shopping center across the freeway is nice for entertainment and food.  On the downside, having lived in this area, I advise caution when out at night, especially on foot.  While this immediate area has been commercialized, there are some not-so-good areas close by.Room:  Pretty standard room, but nicely updated.  Bathroom size is large and separated from vanity by a door.  However, this door and the entrance door have shifted, causing door latches and deadbolt to misalign.  I had to really pull up on the door hard to latch the deadbolt, and the bathroom would never lock.Pros:Clean, updated, friendly staff, good amenities.Cons:Freeway noise, neighboring areas (safety), door latches not aligned well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r177644294-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>177644294</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>Still good for a small hotel</t>
+  </si>
+  <si>
+    <t>Arrived after flying in late for business, but the check-in staff were still energetic and friendly. They even pulled me into a football conversation they'd been having when I walked in. Polite, efficient, and friendly. Got a single room/king bed on the ground floor this time. I'd wondered if there might be extra parking lot noise to deal with, but it was quiet. The rook was a bit warm when I got there, but a quick reset of the wall controller cooled it down fast enough. They have a small cafe in the lobby, and I was pleased to see they have added some healthy choices to the menu. The turkey-egg white sandwich was a good start to the day, and they served Starbucks coffee to wash it down. They provide wired internet in the rooms, and the first 24 hours was free. Perfect for a one-day trip like I was making.I was off to work again the next morning, so it was a short stay, but comfortable as always.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded September 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2013</t>
+  </si>
+  <si>
+    <t>Arrived after flying in late for business, but the check-in staff were still energetic and friendly. They even pulled me into a football conversation they'd been having when I walked in. Polite, efficient, and friendly. Got a single room/king bed on the ground floor this time. I'd wondered if there might be extra parking lot noise to deal with, but it was quiet. The rook was a bit warm when I got there, but a quick reset of the wall controller cooled it down fast enough. They have a small cafe in the lobby, and I was pleased to see they have added some healthy choices to the menu. The turkey-egg white sandwich was a good start to the day, and they served Starbucks coffee to wash it down. They provide wired internet in the rooms, and the first 24 hours was free. Perfect for a one-day trip like I was making.I was off to work again the next morning, so it was a short stay, but comfortable as always.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r177488825-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>177488825</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>Super Staff</t>
+  </si>
+  <si>
+    <t>This hotel is located in Stafford, just east of the Sugar Land border.  The lobby is somewhat cramped and there can be short lines to check-in or check-out.  The staff is exceptionally nice and were friendly with everyone.  The food at the little eating area (it's not a restaurant) is basic but service was quick and served with a Texan-sized smile.  I couldn't get a king room so I had two beds in my highway facing room.  Please note you can hear the traffic all night and it picks up heavily in the morning.  If this bothers you, request a room on the 'quiet side'.  The rooms are the usual Courtyard decor but somehow seemed a bit tired.  My only request for over the top service is that upon check-out, if the staff hears you are traveling to the airport, they ask you if you have $6.50 in quarters because that is how much it is going to cost for the 4 toll booths you'll encounter on the 'freeway'.   Otherwise, you'll be waiting in the cashier lanes which adds significant time to the trip during rush hour.  Oh, its always rush hour in Houston.  I saw nobody in the small pool.  The exercise room is very small with limited equipment.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is located in Stafford, just east of the Sugar Land border.  The lobby is somewhat cramped and there can be short lines to check-in or check-out.  The staff is exceptionally nice and were friendly with everyone.  The food at the little eating area (it's not a restaurant) is basic but service was quick and served with a Texan-sized smile.  I couldn't get a king room so I had two beds in my highway facing room.  Please note you can hear the traffic all night and it picks up heavily in the morning.  If this bothers you, request a room on the 'quiet side'.  The rooms are the usual Courtyard decor but somehow seemed a bit tired.  My only request for over the top service is that upon check-out, if the staff hears you are traveling to the airport, they ask you if you have $6.50 in quarters because that is how much it is going to cost for the 4 toll booths you'll encounter on the 'freeway'.   Otherwise, you'll be waiting in the cashier lanes which adds significant time to the trip during rush hour.  Oh, its always rush hour in Houston.  I saw nobody in the small pool.  The exercise room is very small with limited equipment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r173101934-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>173101934</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>People made the difference</t>
+  </si>
+  <si>
+    <t>While I expected the standard hotel treatment in US, i.e room facility with no personal attention, I was pleasantly surprised with the service here. Front desk personnel remembering your name when you walk in the 2nd/3rd time, engaging and helpful, the bistro personnel always with a smile...The facility by itself is fine...near other restaurants ...overall a good stay...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded August 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2013</t>
+  </si>
+  <si>
+    <t>While I expected the standard hotel treatment in US, i.e room facility with no personal attention, I was pleasantly surprised with the service here. Front desk personnel remembering your name when you walk in the 2nd/3rd time, engaging and helpful, the bistro personnel always with a smile...The facility by itself is fine...near other restaurants ...overall a good stay...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r172812170-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>172812170</t>
+  </si>
+  <si>
+    <t>08/18/2013</t>
+  </si>
+  <si>
+    <t>I wouldn't stay there again, unless I have no more options.</t>
+  </si>
+  <si>
+    <t>The people working at the hotel is very friendly; however, I was under impressed with the hotel facilities. The room, was not very clean, it smelled weird. Even when I communicated it to the front desk, they didn't clean the room very well in the next days. The fan of the a/c of my room was very high, and there was no way to make it lower... I could control the temp, but the fan in low was still too high for me... Which made me sick after some days, because of the change between the hot humid temperature outside and the cold breeze on my room.They definitely have to improve in the room cleaning, and the hotel facilitIes.MoreShow less</t>
+  </si>
+  <si>
+    <t>The people working at the hotel is very friendly; however, I was under impressed with the hotel facilities. The room, was not very clean, it smelled weird. Even when I communicated it to the front desk, they didn't clean the room very well in the next days. The fan of the a/c of my room was very high, and there was no way to make it lower... I could control the temp, but the fan in low was still too high for me... Which made me sick after some days, because of the change between the hot humid temperature outside and the cold breeze on my room.They definitely have to improve in the room cleaning, and the hotel facilitIes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r167931708-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>167931708</t>
+  </si>
+  <si>
+    <t>07/17/2013</t>
+  </si>
+  <si>
+    <t>lovely facility and personel</t>
+  </si>
+  <si>
+    <t>Had a one night stay and because of airline problems didn't arrive until 2am-I was welcomed personally-given a cold water bottle and a smile.  The room was very pretty and updated and the service downstairs was nice coming and going.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded July 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2013</t>
+  </si>
+  <si>
+    <t>Had a one night stay and because of airline problems didn't arrive until 2am-I was welcomed personally-given a cold water bottle and a smile.  The room was very pretty and updated and the service downstairs was nice coming and going.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r163726920-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>163726920</t>
+  </si>
+  <si>
+    <t>06/11/2013</t>
+  </si>
+  <si>
+    <t>Beyond impressed with my experience</t>
+  </si>
+  <si>
+    <t>I travel 100% of the time because of my job and have become a definite critic on hotels, dining &amp; airlines.I will keep it simple-I wouldn't be writing a post if I didn't feel the need to go out of my way to express how happy I was with the service of this hotel.-The most friendliest service, they remember your name, your food preferences when ordering at the bar, remember who you are when you come back for a 2nd, 3rd, 4th time and make genuine conversation with you, as well as ensure you are well taken care of.-Room Cleanliness: I could not rave enough about how good of a job the staff is with cleaning my roomI definitely look forward to coming back to this area to work JUST so I can stay in this hotel. I would recommend this place for anyone who's looking for superb service.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded June 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2013</t>
+  </si>
+  <si>
+    <t>I travel 100% of the time because of my job and have become a definite critic on hotels, dining &amp; airlines.I will keep it simple-I wouldn't be writing a post if I didn't feel the need to go out of my way to express how happy I was with the service of this hotel.-The most friendliest service, they remember your name, your food preferences when ordering at the bar, remember who you are when you come back for a 2nd, 3rd, 4th time and make genuine conversation with you, as well as ensure you are well taken care of.-Room Cleanliness: I could not rave enough about how good of a job the staff is with cleaning my roomI definitely look forward to coming back to this area to work JUST so I can stay in this hotel. I would recommend this place for anyone who's looking for superb service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r158695687-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>158695687</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>Worth writing home about</t>
+  </si>
+  <si>
+    <t>The staff was very professional, pleasant, &amp; very friendly. The rooms were very well laid out, the beds were comfy, &amp; it was spotless. The lobby was beautiful. I had not stayed in a hotel In Some time  but this one I would stay in again . MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded April 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2013</t>
+  </si>
+  <si>
+    <t>The staff was very professional, pleasant, &amp; very friendly. The rooms were very well laid out, the beds were comfy, &amp; it was spotless. The lobby was beautiful. I had not stayed in a hotel In Some time  but this one I would stay in again . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r158666823-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>158666823</t>
+  </si>
+  <si>
+    <t>Worst front desk</t>
+  </si>
+  <si>
+    <t>I travel often and have seen it all. But this took the cake. Not being from the area I thought the local front desk would be able to get me a cab, help me find a good eatery and and a wake up call. Incorrect. I had a girl named Kaitlyn I think. She gave me the number to yellow cab so I could call myself, sent me to giant computer for dinner with no further instruction or reconmdation and was told I couldn't have 2 wake up calls and had to pick one. She was very distracted with the computer In front her. I'm not normally one to complain. Customer service training would do this hotel some good.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel often and have seen it all. But this took the cake. Not being from the area I thought the local front desk would be able to get me a cab, help me find a good eatery and and a wake up call. Incorrect. I had a girl named Kaitlyn I think. She gave me the number to yellow cab so I could call myself, sent me to giant computer for dinner with no further instruction or reconmdation and was told I couldn't have 2 wake up calls and had to pick one. She was very distracted with the computer In front her. I'm not normally one to complain. Customer service training would do this hotel some good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r155649575-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>155649575</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Beds are great and staff very friendly and helpful.  Some people were not happy about paying for breakfast.  Location is right next to freeway but room was still quiet.  Close to many places to eat that have a variety of prices.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded March 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2013</t>
+  </si>
+  <si>
+    <t>Beds are great and staff very friendly and helpful.  Some people were not happy about paying for breakfast.  Location is right next to freeway but room was still quiet.  Close to many places to eat that have a variety of prices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r154898096-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>154898096</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>This is a really nice hotel and the beds are very restful.  We stayed there for our daughter AAU basketball tournament. I would definitely encourage those on business to stay in this location, but for a group of young lady basketball players and their families the pay for breakfast is a bummer.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded March 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2013</t>
+  </si>
+  <si>
+    <t>This is a really nice hotel and the beds are very restful.  We stayed there for our daughter AAU basketball tournament. I would definitely encourage those on business to stay in this location, but for a group of young lady basketball players and their families the pay for breakfast is a bummer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r154306771-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>154306771</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>Cool Lobby and Terrific Staff</t>
+  </si>
+  <si>
+    <t>My husband and I were here overnight and Kaitlyn at the front desk was super-friendly and helpful.  One staff member made a special trip to find a cart we needed. 
+The lobby is gorgeous and up-to-the minute with small flatscreens by some booths with a remote-- you can choose the channel so that you didn't have one big screen with what you didn't want to watch blaring at you. Lots of outlets too, plus complimentary coffee and tea; you can really camp out there and get work done if you need to.  
+I also appreciated the well-stocked little fitness center and wifi which was easy to access.  Having a lobby coffee bar with a limited Starbucks menu was amazing!  And it was convenient to have a little bistro with selection of drinks/snacks/sundries.  The hotel was also well-designed in that the hall to the pool and gym were directly off the lobby rather than down the hall from rooms so that people weren't tramping past all hours of the day and night.  Our room was very clean, bed soft, smooth elevator, nice quiet hallways.
+The only drawback was not having a minifridge in our room.  All other annoyances were minor: There was mildew/water damage starting on one of the bathroom pictures, and the handle of the shower was cranked so tightly that if my husband weren't there to unstick it, I don't know what I would have done.  Food at the...My husband and I were here overnight and Kaitlyn at the front desk was super-friendly and helpful.  One staff member made a special trip to find a cart we needed. The lobby is gorgeous and up-to-the minute with small flatscreens by some booths with a remote-- you can choose the channel so that you didn't have one big screen with what you didn't want to watch blaring at you. Lots of outlets too, plus complimentary coffee and tea; you can really camp out there and get work done if you need to.  I also appreciated the well-stocked little fitness center and wifi which was easy to access.  Having a lobby coffee bar with a limited Starbucks menu was amazing!  And it was convenient to have a little bistro with selection of drinks/snacks/sundries.  The hotel was also well-designed in that the hall to the pool and gym were directly off the lobby rather than down the hall from rooms so that people weren't tramping past all hours of the day and night.  Our room was very clean, bed soft, smooth elevator, nice quiet hallways.The only drawback was not having a minifridge in our room.  All other annoyances were minor: There was mildew/water damage starting on one of the bathroom pictures, and the handle of the shower was cranked so tightly that if my husband weren't there to unstick it, I don't know what I would have done.  Food at the bistro wasn't great but at least it wasn't outrageously priced, and our server remembered the "regular" order of the guest behind us, which impressed me.  When we checked out there was some drama with the bill; we tried to use a Visa gift card for part of the bill but it was rejected by the system for some reason. If we'd have had the time I guess the staff might have called and figured it out, but we were on a tight schedule and had to run. So I lay the blame for that one mostly on Visa.In all, very good stay; I would definitely stay again and recommend it to friends.  Thanks Courtyard :)MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I were here overnight and Kaitlyn at the front desk was super-friendly and helpful.  One staff member made a special trip to find a cart we needed. 
+The lobby is gorgeous and up-to-the minute with small flatscreens by some booths with a remote-- you can choose the channel so that you didn't have one big screen with what you didn't want to watch blaring at you. Lots of outlets too, plus complimentary coffee and tea; you can really camp out there and get work done if you need to.  
+I also appreciated the well-stocked little fitness center and wifi which was easy to access.  Having a lobby coffee bar with a limited Starbucks menu was amazing!  And it was convenient to have a little bistro with selection of drinks/snacks/sundries.  The hotel was also well-designed in that the hall to the pool and gym were directly off the lobby rather than down the hall from rooms so that people weren't tramping past all hours of the day and night.  Our room was very clean, bed soft, smooth elevator, nice quiet hallways.
+The only drawback was not having a minifridge in our room.  All other annoyances were minor: There was mildew/water damage starting on one of the bathroom pictures, and the handle of the shower was cranked so tightly that if my husband weren't there to unstick it, I don't know what I would have done.  Food at the...My husband and I were here overnight and Kaitlyn at the front desk was super-friendly and helpful.  One staff member made a special trip to find a cart we needed. The lobby is gorgeous and up-to-the minute with small flatscreens by some booths with a remote-- you can choose the channel so that you didn't have one big screen with what you didn't want to watch blaring at you. Lots of outlets too, plus complimentary coffee and tea; you can really camp out there and get work done if you need to.  I also appreciated the well-stocked little fitness center and wifi which was easy to access.  Having a lobby coffee bar with a limited Starbucks menu was amazing!  And it was convenient to have a little bistro with selection of drinks/snacks/sundries.  The hotel was also well-designed in that the hall to the pool and gym were directly off the lobby rather than down the hall from rooms so that people weren't tramping past all hours of the day and night.  Our room was very clean, bed soft, smooth elevator, nice quiet hallways.The only drawback was not having a minifridge in our room.  All other annoyances were minor: There was mildew/water damage starting on one of the bathroom pictures, and the handle of the shower was cranked so tightly that if my husband weren't there to unstick it, I don't know what I would have done.  Food at the bistro wasn't great but at least it wasn't outrageously priced, and our server remembered the "regular" order of the guest behind us, which impressed me.  When we checked out there was some drama with the bill; we tried to use a Visa gift card for part of the bill but it was rejected by the system for some reason. If we'd have had the time I guess the staff might have called and figured it out, but we were on a tight schedule and had to run. So I lay the blame for that one mostly on Visa.In all, very good stay; I would definitely stay again and recommend it to friends.  Thanks Courtyard :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r151685190-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>151685190</t>
+  </si>
+  <si>
+    <t>02/08/2013</t>
+  </si>
+  <si>
+    <t>Room is dirty</t>
+  </si>
+  <si>
+    <t>Carpet had burns in it, dead roach on floor.  the bistro was soso with very slow service.  The employees are very nice and friendly .  The breakfast takes at least 10 to 15 mins.  The drinks at the bar are very small.   Next store to a harley davidson store so it is noisey.  The restaurant Pappadious next store is very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded February 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2013</t>
+  </si>
+  <si>
+    <t>Carpet had burns in it, dead roach on floor.  the bistro was soso with very slow service.  The employees are very nice and friendly .  The breakfast takes at least 10 to 15 mins.  The drinks at the bar are very small.   Next store to a harley davidson store so it is noisey.  The restaurant Pappadious next store is very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r151263507-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>151263507</t>
+  </si>
+  <si>
+    <t>02/02/2013</t>
+  </si>
+  <si>
+    <t>Updated so nice!</t>
+  </si>
+  <si>
+    <t>I stayed here for a week, not knowing what to expect as Courtyards can be iffy. This Courtyard was completed remodeled and it had a Bistro, cafe. I was worried how I would eat on my trip as I didn't rent a car. It was easy to get a great healthy hot breakfast, no continental. A cheap dinner that was nothing like room service but it did the job, I got full and enjoyed it I never spent over $15 before tip. The staff was very friendly and ready to help at all times. The rooms were clean and modern, even was upgraded for free. I would definatly recommend if you are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded February 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for a week, not knowing what to expect as Courtyards can be iffy. This Courtyard was completed remodeled and it had a Bistro, cafe. I was worried how I would eat on my trip as I didn't rent a car. It was easy to get a great healthy hot breakfast, no continental. A cheap dinner that was nothing like room service but it did the job, I got full and enjoyed it I never spent over $15 before tip. The staff was very friendly and ready to help at all times. The rooms were clean and modern, even was upgraded for free. I would definatly recommend if you are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r148305551-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>148305551</t>
+  </si>
+  <si>
+    <t>12/29/2012</t>
+  </si>
+  <si>
+    <t>Pleasant stay; exceeded expectations</t>
+  </si>
+  <si>
+    <t>I stayed at the Courtyard by Marriott Houston Sugar Land for 2 nights during the Thanksgiving holidays. I was visiting a close family friend who lived in the area and the family selected this property because of its proximity to their home. I have to say, I am a very picky hotel guest and usually stay at quality properties when traveling. My friend selected this hotel because he was able to secure the associate rate of $39.00 per night. The lobby is brand new and has a complete Starbucks coffee bar with bartender, as well as a small convenience store for purchasing snacks, etc. Staff were extremely charming and hospitable. The room I stayed in was very large and had a balcony (albeit the view was of the Harley Davison store). The room had a 32'' flat screen TV, sofa/seating area, very comfortable king-size bed, and a well-sized bathroom that was very clean. Overall, for a Courtyard along the highway, I was very impressed. This is a very up-to-date property and would recommend if you are traveling on a budget in the area. One negative was that the jacuzzi was not working. Interestingly, there is a Marriott Residence Inn literally 50 yards away from the Courtyard and that property has a basketball court and jacuzzi which Courtyard guests can use.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded January 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at the Courtyard by Marriott Houston Sugar Land for 2 nights during the Thanksgiving holidays. I was visiting a close family friend who lived in the area and the family selected this property because of its proximity to their home. I have to say, I am a very picky hotel guest and usually stay at quality properties when traveling. My friend selected this hotel because he was able to secure the associate rate of $39.00 per night. The lobby is brand new and has a complete Starbucks coffee bar with bartender, as well as a small convenience store for purchasing snacks, etc. Staff were extremely charming and hospitable. The room I stayed in was very large and had a balcony (albeit the view was of the Harley Davison store). The room had a 32'' flat screen TV, sofa/seating area, very comfortable king-size bed, and a well-sized bathroom that was very clean. Overall, for a Courtyard along the highway, I was very impressed. This is a very up-to-date property and would recommend if you are traveling on a budget in the area. One negative was that the jacuzzi was not working. Interestingly, there is a Marriott Residence Inn literally 50 yards away from the Courtyard and that property has a basketball court and jacuzzi which Courtyard guests can use.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r146425247-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>146425247</t>
+  </si>
+  <si>
+    <t>11/29/2012</t>
+  </si>
+  <si>
+    <t>The service level is the best of any Hotel I stay at.</t>
+  </si>
+  <si>
+    <t>I travel to the Houston area about every 6 weeks for business and always stay at the Courtyard in Sugar Land. There are many other choices, but it is because of the staff that I always stay here. From the minute you arrive to the time you leave, they will do anything to make your stay enjoyable. As a person who travels over 40 weeks a year, it really is the next best thing to home staying at this hotel.The staff always greets you by name and are always smiling and making you feel special. I encourage anyone who is visiting this area to try it out and I will guarantee you that it will be the best decision you can make.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded December 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2012</t>
+  </si>
+  <si>
+    <t>I travel to the Houston area about every 6 weeks for business and always stay at the Courtyard in Sugar Land. There are many other choices, but it is because of the staff that I always stay here. From the minute you arrive to the time you leave, they will do anything to make your stay enjoyable. As a person who travels over 40 weeks a year, it really is the next best thing to home staying at this hotel.The staff always greets you by name and are always smiling and making you feel special. I encourage anyone who is visiting this area to try it out and I will guarantee you that it will be the best decision you can make.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r146049415-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>146049415</t>
+  </si>
+  <si>
+    <t>11/23/2012</t>
+  </si>
+  <si>
+    <t>Excellent service and friendly staff.</t>
+  </si>
+  <si>
+    <t>The staff of this hotel were most helpful over the phone. The service that we received after we arrived was extraordinary. The rooms were very clean and no problems noted. This hotel is in a very good location. It is close to the hi-way and the quality of business in this area is high. This was among the best that I have used in world wide travels. It was unequaled for quality of service and price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded November 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2012</t>
+  </si>
+  <si>
+    <t>The staff of this hotel were most helpful over the phone. The service that we received after we arrived was extraordinary. The rooms were very clean and no problems noted. This hotel is in a very good location. It is close to the hi-way and the quality of business in this area is high. This was among the best that I have used in world wide travels. It was unequaled for quality of service and price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r144667707-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>144667707</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>EXCELLENT service and staff</t>
+  </si>
+  <si>
+    <t>I stayed here for business and this hotel has the best staff I have ever seen at a hotel. Every single staff member made sure I had every thing I needed from the front desk to the cafe. Very impressive. The hotel is super clean and has everything that you need. Couldn't ask for anything more!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded November 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for business and this hotel has the best staff I have ever seen at a hotel. Every single staff member made sure I had every thing I needed from the front desk to the cafe. Very impressive. The hotel is super clean and has everything that you need. Couldn't ask for anything more!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r141652445-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>141652445</t>
+  </si>
+  <si>
+    <t>09/30/2012</t>
+  </si>
+  <si>
+    <t>Great customer service!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel this month and was so happy. I was greeted by the kindest man named Nick. He instantly greeted me and really seemed to care about what brought me to town. He took several steps to insure I was completely happy with my room. I was overwhelmed with positive feelings of my stay due to this pleasant experience. I was checked out by a tall blonde woman who was also very pleasant. This hotel also has a Bistro that has delicious food. My breakfast service was less then amazing but was made up for by a blonde bartender at night. Overall I would suggest staying here to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded October 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel this month and was so happy. I was greeted by the kindest man named Nick. He instantly greeted me and really seemed to care about what brought me to town. He took several steps to insure I was completely happy with my room. I was overwhelmed with positive feelings of my stay due to this pleasant experience. I was checked out by a tall blonde woman who was also very pleasant. This hotel also has a Bistro that has delicious food. My breakfast service was less then amazing but was made up for by a blonde bartender at night. Overall I would suggest staying here to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r140091197-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>140091197</t>
+  </si>
+  <si>
+    <t>09/12/2012</t>
+  </si>
+  <si>
+    <t>Patricia Patricia!</t>
+  </si>
+  <si>
+    <t>this review is equally about Patricia personally as well as the staff at Couryard Sugar Land.  the location was perfect right off of Southwest freeway.  I had a great weekend in Houston.  Patricia specifically went above and beyond to ensure that I had a comfortable stay.  She recognized me as a marriott elite and upgraded my room and remedied a mistake by a previous staff member.  She is knowledgeable and helpful and Im very happy she was there to make my stay much better.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded September 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2012</t>
+  </si>
+  <si>
+    <t>this review is equally about Patricia personally as well as the staff at Couryard Sugar Land.  the location was perfect right off of Southwest freeway.  I had a great weekend in Houston.  Patricia specifically went above and beyond to ensure that I had a comfortable stay.  She recognized me as a marriott elite and upgraded my room and remedied a mistake by a previous staff member.  She is knowledgeable and helpful and Im very happy she was there to make my stay much better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r140026168-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>140026168</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>1st floor rooms are EXCLUSIVE!</t>
+  </si>
+  <si>
+    <t>The staff all offered a enthusiastic and welcoming personality, great rooms and great amenities. Also the location of the Hotel is not far from fast food restaurants and big name sit down restaurants like Papadaux seafood.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff all offered a enthusiastic and welcoming personality, great rooms and great amenities. Also the location of the Hotel is not far from fast food restaurants and big name sit down restaurants like Papadaux seafood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r138587327-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>138587327</t>
+  </si>
+  <si>
+    <t>08/27/2012</t>
+  </si>
+  <si>
+    <t>One of the cleanest, and best Courtyard experiences I have had</t>
+  </si>
+  <si>
+    <t>I have stayed at this courtyard about 4 years ago, and don't remember it being as amazing an experience as I recently had.When I checked in late at night, I was greeted by a super friendly Front desk attendant, Rendell.  I have stayed in quite a few hotels recently, and I can tell you that his smile, and personality were genuinely welcomed after along day of travel.  I saw him several times during my stay, and he was always friendly, and bright.  I don't think I can recommend him more highly.  The other staff were always friendly and happy as well.  Best of all, it really seemed sincere.Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded August 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at this courtyard about 4 years ago, and don't remember it being as amazing an experience as I recently had.When I checked in late at night, I was greeted by a super friendly Front desk attendant, Rendell.  I have stayed in quite a few hotels recently, and I can tell you that his smile, and personality were genuinely welcomed after along day of travel.  I saw him several times during my stay, and he was always friendly, and bright.  I don't think I can recommend him more highly.  The other staff were always friendly and happy as well.  Best of all, it really seemed sincere.Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r137833505-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>137833505</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>Always consistent high quality service</t>
+  </si>
+  <si>
+    <t>I visit the Houston / Sugar Land several times a year. I have stayed at the Courtyard downtown and the Marriott Town Square and whether for personal or business reasons I prefer the Courtyard in Stafford for one main reason and that is the staff goes out of their way to provide service and support with a friendly smile. I have stayed in other hotels where the front desk personnel refused to make eye contact with incoming guests. This Courtyard knows me by name.  Will continue to make this hotel my first choice for Houston trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded August 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2012</t>
+  </si>
+  <si>
+    <t>I visit the Houston / Sugar Land several times a year. I have stayed at the Courtyard downtown and the Marriott Town Square and whether for personal or business reasons I prefer the Courtyard in Stafford for one main reason and that is the staff goes out of their way to provide service and support with a friendly smile. I have stayed in other hotels where the front desk personnel refused to make eye contact with incoming guests. This Courtyard knows me by name.  Will continue to make this hotel my first choice for Houston trips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r137069780-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>137069780</t>
+  </si>
+  <si>
+    <t>08/13/2012</t>
+  </si>
+  <si>
+    <t>Birthday "blues"</t>
+  </si>
+  <si>
+    <t>Attended a business meeting in Houston and chose the Courtyard Marriott in Sugarland, Texas. Front Desk Manager Rendell Cruz was accommodating and courteous. Rendell asked, “Are you a Marriott Rewards Member?” I was not a member. However, Rendell was being very nice and I accepted the offer. During the enrollment, Rendell realized it was my birthday. He offered a “Happy Birthday” and a “High Five”. The next morning, I noticed an envelope on the floor. I discovered Rendell had provided me a Birthday card with notification of “Bonus Points” added to my new Marriott Rewards card. I was very touched. I will be staying at Marriott hotels in the future. SUCH GREAT SERVICE!MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded August 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2012</t>
+  </si>
+  <si>
+    <t>Attended a business meeting in Houston and chose the Courtyard Marriott in Sugarland, Texas. Front Desk Manager Rendell Cruz was accommodating and courteous. Rendell asked, “Are you a Marriott Rewards Member?” I was not a member. However, Rendell was being very nice and I accepted the offer. During the enrollment, Rendell realized it was my birthday. He offered a “Happy Birthday” and a “High Five”. The next morning, I noticed an envelope on the floor. I discovered Rendell had provided me a Birthday card with notification of “Bonus Points” added to my new Marriott Rewards card. I was very touched. I will be staying at Marriott hotels in the future. SUCH GREAT SERVICE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r136012697-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>136012697</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>can't go wrong with Courtyard</t>
+  </si>
+  <si>
+    <t>Stayed here on business for two nights.  Excellent staff--friendly greeting, gave helpful information.  The first room I had was very humid and even though I turned up the air, the room remained humid.  I called down to the desk and they moved me immediately.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded August 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here on business for two nights.  Excellent staff--friendly greeting, gave helpful information.  The first room I had was very humid and even though I turned up the air, the room remained humid.  I called down to the desk and they moved me immediately.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r135738609-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>135738609</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>Great Experience!</t>
+  </si>
+  <si>
+    <t>We love Marriott and we were not disappointed with our stay.  We stayed here for three days while attending a wedding.  The room was clean and inviting.  The bed was very comfortable.  Service was excellent.  The ladies at the front desk were kind and hospitable and made every attempt  to make our stay comfortable.  We loved Jeanette who worked the night shift.  She was the the best.  Location is fantastic.  I will stay here again and will recommend this hotel to my friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded August 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2012</t>
+  </si>
+  <si>
+    <t>We love Marriott and we were not disappointed with our stay.  We stayed here for three days while attending a wedding.  The room was clean and inviting.  The bed was very comfortable.  Service was excellent.  The ladies at the front desk were kind and hospitable and made every attempt  to make our stay comfortable.  We loved Jeanette who worked the night shift.  She was the the best.  Location is fantastic.  I will stay here again and will recommend this hotel to my friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r134584883-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>134584883</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Although we live north of Houston when we have tournaments in Sugarland we always stay here.  Staff is extremely helpful and friendly, will go out of their way to accommodate your needs.  Rooms are clean, sheets are crispy, showers bright and super clean.  Morning coffee is excellent, and you are ready to go to where veer your destination is.  Will recommend this property to anybody including the business traveler.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vernon01, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded July 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2012</t>
+  </si>
+  <si>
+    <t>Although we live north of Houston when we have tournaments in Sugarland we always stay here.  Staff is extremely helpful and friendly, will go out of their way to accommodate your needs.  Rooms are clean, sheets are crispy, showers bright and super clean.  Morning coffee is excellent, and you are ready to go to where veer your destination is.  Will recommend this property to anybody including the business traveler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r132578543-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>132578543</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>Hidden Gem!</t>
+  </si>
+  <si>
+    <t>After over 24 hours of traveling halfway round the world we finally arrived 3am due to flight delays and were we exhausted!  The lady who checked us in was cheerful &amp; bright and made us super welcome and lifted our tired spirits! We didn't wake up till very late the next day - the housekeeping staff didn't bother us at all, but when we arrived back late that night the room had been serviced.  The room was great with free USA Today, coffee, flat screen tv, handy seating area and the king size bed!  Absolute value for money (as we were to find out as we travelled through the US) and the staff had great 'can do' attitude, very friendly.  The location of the hotel was spot on for our needs - really enjoyed watching Memorial golf replay the next morning at breakfast.Thanks for a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>After over 24 hours of traveling halfway round the world we finally arrived 3am due to flight delays and were we exhausted!  The lady who checked us in was cheerful &amp; bright and made us super welcome and lifted our tired spirits! We didn't wake up till very late the next day - the housekeeping staff didn't bother us at all, but when we arrived back late that night the room had been serviced.  The room was great with free USA Today, coffee, flat screen tv, handy seating area and the king size bed!  Absolute value for money (as we were to find out as we travelled through the US) and the staff had great 'can do' attitude, very friendly.  The location of the hotel was spot on for our needs - really enjoyed watching Memorial golf replay the next morning at breakfast.Thanks for a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r132332409-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>132332409</t>
+  </si>
+  <si>
+    <t>06/19/2012</t>
+  </si>
+  <si>
+    <t>Excellent choice for business or pleasure</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here as we were passing through town.  We arrived 5 minutes before the Bistro was closing, but the staff stayed late to prepare a meal for us.  The next morning, we were late getting downstairs for breakfast.  Even though the kitchen was closed, the front desk manager went back to the kitchen and made sure that there was still some oatmeal left and kitchen staff served us with a warm, friendly smile.  The rooms are very comfortable and the bed was excellent.  It was nice to have the newspaper waiting under the door when I woke up in the morning.  I highly recommend this hotel.  I travel a lot, and stay in Marriott hotels at least 150 nights per year.  This was one of the best.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vernon01, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded June 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2012</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here as we were passing through town.  We arrived 5 minutes before the Bistro was closing, but the staff stayed late to prepare a meal for us.  The next morning, we were late getting downstairs for breakfast.  Even though the kitchen was closed, the front desk manager went back to the kitchen and made sure that there was still some oatmeal left and kitchen staff served us with a warm, friendly smile.  The rooms are very comfortable and the bed was excellent.  It was nice to have the newspaper waiting under the door when I woke up in the morning.  I highly recommend this hotel.  I travel a lot, and stay in Marriott hotels at least 150 nights per year.  This was one of the best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r132160327-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>132160327</t>
+  </si>
+  <si>
+    <t>06/17/2012</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>I stay here every time I visit Sugar Land. The staff is always friendly and helpful; management is great. The property is stylish and clean. The mattresses and pillows are soft. There's always coffee in the morning with a free USA Today. Anything you want to eat or do is within a 5-10 minute commute. The price could come down a little bit; which is why I gave four stars rather than 5.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2012</t>
+  </si>
+  <si>
+    <t>I stay here every time I visit Sugar Land. The staff is always friendly and helpful; management is great. The property is stylish and clean. The mattresses and pillows are soft. There's always coffee in the morning with a free USA Today. Anything you want to eat or do is within a 5-10 minute commute. The price could come down a little bit; which is why I gave four stars rather than 5.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r131575182-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>131575182</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>Great Business Hotel</t>
+  </si>
+  <si>
+    <t>This is a great business person's hotel. The staff are friendly and do everything possible to make the stay the best possible. The location is good, right on the freeway with lots of restaurants close by. If you need to be in this part of Houston, I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vernon01, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded June 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2012</t>
+  </si>
+  <si>
+    <t>This is a great business person's hotel. The staff are friendly and do everything possible to make the stay the best possible. The location is good, right on the freeway with lots of restaurants close by. If you need to be in this part of Houston, I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r131503617-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>131503617</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel, good location</t>
+  </si>
+  <si>
+    <t>Everything about this hotel was great, front desk was overly helpful, rooms were clean and well appointed, location was very good, located close to IHOP but there small breakfast restaurant was very good as well with friendly service  , there was also a few other restaurants  within a 3 min walk . Also central to all good shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Vernon01, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded June 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2012</t>
+  </si>
+  <si>
+    <t>Everything about this hotel was great, front desk was overly helpful, rooms were clean and well appointed, location was very good, located close to IHOP but there small breakfast restaurant was very good as well with friendly service  , there was also a few other restaurants  within a 3 min walk . Also central to all good shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r131313076-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>131313076</t>
+  </si>
+  <si>
+    <t>06/04/2012</t>
+  </si>
+  <si>
+    <t>Friendly crews</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for one night during my business trip in Houston recently.  The lobby lounge area was very European like.  Something different from other Courtyards that I stayed in US.   The crews there are very friendly.  The assistant general manager checked me in.    We were talking and joking around a little just like anyone would.  What impressed me was that I walked in and out of the hotel a few times later that day.  She was still at the front desk and she always addressed me with my last name and said welcome back.  That really made me feels welcome.  So, look for Heather next time when you are there.  The girl who served me at the bar was very friendly as well.   A bar at Courtyard is also something new for me.   The room is typical Courtyard, clean and efficient.   I will stay in this Courtyard next time when I’m in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for one night during my business trip in Houston recently.  The lobby lounge area was very European like.  Something different from other Courtyards that I stayed in US.   The crews there are very friendly.  The assistant general manager checked me in.    We were talking and joking around a little just like anyone would.  What impressed me was that I walked in and out of the hotel a few times later that day.  She was still at the front desk and she always addressed me with my last name and said welcome back.  That really made me feels welcome.  So, look for Heather next time when you are there.  The girl who served me at the bar was very friendly as well.   A bar at Courtyard is also something new for me.   The room is typical Courtyard, clean and efficient.   I will stay in this Courtyard next time when I’m in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106338-r125651532-Courtyard_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>125651532</t>
+  </si>
+  <si>
+    <t>03/05/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel, good service...</t>
+  </si>
+  <si>
+    <t>This hotel fits in general with a Business Class hotel, the only concern that I have it does not have a little freezer in the room.. and I need to carry ice daily to my room... because I stayed over 2 weeks... I need to keep water and some beverages on hand.. The staff is very kind and professional, the lobby is modern and comfortable to spend some time there talking and having quick meetings...MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Vernon01, Director of Sales at Courtyard Houston Sugar Land, responded to this reviewResponded March 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2012</t>
+  </si>
+  <si>
+    <t>This hotel fits in general with a Business Class hotel, the only concern that I have it does not have a little freezer in the room.. and I need to carry ice daily to my room... because I stayed over 2 weeks... I need to keep water and some beverages on hand.. The staff is very kind and professional, the lobby is modern and comfortable to spend some time there talking and having quick meetings...More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2596,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2628,5587 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>153</v>
+      </c>
+      <c r="X14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>138</v>
+      </c>
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>183</v>
+      </c>
+      <c r="X18" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>198</v>
+      </c>
+      <c r="X20" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>206</v>
+      </c>
+      <c r="O21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>215</v>
+      </c>
+      <c r="O22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>216</v>
+      </c>
+      <c r="X22" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>224</v>
+      </c>
+      <c r="X23" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>232</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>233</v>
+      </c>
+      <c r="X24" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>241</v>
+      </c>
+      <c r="O25" t="s">
+        <v>242</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>243</v>
+      </c>
+      <c r="X25" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>241</v>
+      </c>
+      <c r="O26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>243</v>
+      </c>
+      <c r="X26" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" t="s">
+        <v>254</v>
+      </c>
+      <c r="K27" t="s">
+        <v>255</v>
+      </c>
+      <c r="L27" t="s">
+        <v>256</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>257</v>
+      </c>
+      <c r="X27" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>261</v>
+      </c>
+      <c r="J28" t="s">
+        <v>262</v>
+      </c>
+      <c r="K28" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" t="s">
+        <v>264</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>265</v>
+      </c>
+      <c r="O28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>266</v>
+      </c>
+      <c r="X28" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J29" t="s">
+        <v>271</v>
+      </c>
+      <c r="K29" t="s">
+        <v>272</v>
+      </c>
+      <c r="L29" t="s">
+        <v>273</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>274</v>
+      </c>
+      <c r="O29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s">
+        <v>279</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>280</v>
+      </c>
+      <c r="O30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" t="s">
+        <v>285</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>286</v>
+      </c>
+      <c r="O31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>288</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>289</v>
+      </c>
+      <c r="J32" t="s">
+        <v>290</v>
+      </c>
+      <c r="K32" t="s">
+        <v>291</v>
+      </c>
+      <c r="L32" t="s">
+        <v>292</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>293</v>
+      </c>
+      <c r="O32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>294</v>
+      </c>
+      <c r="X32" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>297</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>298</v>
+      </c>
+      <c r="J33" t="s">
+        <v>299</v>
+      </c>
+      <c r="K33" t="s">
+        <v>300</v>
+      </c>
+      <c r="L33" t="s">
+        <v>301</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>302</v>
+      </c>
+      <c r="O33" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>303</v>
+      </c>
+      <c r="X33" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>306</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J34" t="s">
+        <v>308</v>
+      </c>
+      <c r="K34" t="s">
+        <v>309</v>
+      </c>
+      <c r="L34" t="s">
+        <v>310</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>274</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>311</v>
+      </c>
+      <c r="X34" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>314</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>315</v>
+      </c>
+      <c r="J35" t="s">
+        <v>316</v>
+      </c>
+      <c r="K35" t="s">
+        <v>317</v>
+      </c>
+      <c r="L35" t="s">
+        <v>318</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>286</v>
+      </c>
+      <c r="O35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>319</v>
+      </c>
+      <c r="X35" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>323</v>
+      </c>
+      <c r="J36" t="s">
+        <v>324</v>
+      </c>
+      <c r="K36" t="s">
+        <v>325</v>
+      </c>
+      <c r="L36" t="s">
+        <v>326</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>327</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X36" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>331</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>332</v>
+      </c>
+      <c r="J37" t="s">
+        <v>333</v>
+      </c>
+      <c r="K37" t="s">
+        <v>334</v>
+      </c>
+      <c r="L37" t="s">
+        <v>335</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>336</v>
+      </c>
+      <c r="X37" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>339</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>340</v>
+      </c>
+      <c r="J38" t="s">
+        <v>341</v>
+      </c>
+      <c r="K38" t="s">
+        <v>342</v>
+      </c>
+      <c r="L38" t="s">
+        <v>343</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>344</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>345</v>
+      </c>
+      <c r="X38" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>348</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>349</v>
+      </c>
+      <c r="J39" t="s">
+        <v>350</v>
+      </c>
+      <c r="K39" t="s">
+        <v>351</v>
+      </c>
+      <c r="L39" t="s">
+        <v>352</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>353</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>354</v>
+      </c>
+      <c r="X39" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>357</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>358</v>
+      </c>
+      <c r="J40" t="s">
+        <v>359</v>
+      </c>
+      <c r="K40" t="s">
+        <v>360</v>
+      </c>
+      <c r="L40" t="s">
+        <v>361</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>353</v>
+      </c>
+      <c r="O40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>362</v>
+      </c>
+      <c r="X40" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>365</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>366</v>
+      </c>
+      <c r="J41" t="s">
+        <v>367</v>
+      </c>
+      <c r="K41" t="s">
+        <v>368</v>
+      </c>
+      <c r="L41" t="s">
+        <v>369</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>370</v>
+      </c>
+      <c r="O41" t="s">
+        <v>77</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>371</v>
+      </c>
+      <c r="X41" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>374</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>375</v>
+      </c>
+      <c r="J42" t="s">
+        <v>376</v>
+      </c>
+      <c r="K42" t="s">
+        <v>377</v>
+      </c>
+      <c r="L42" t="s">
+        <v>378</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>370</v>
+      </c>
+      <c r="O42" t="s">
+        <v>77</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>379</v>
+      </c>
+      <c r="X42" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>382</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>383</v>
+      </c>
+      <c r="J43" t="s">
+        <v>376</v>
+      </c>
+      <c r="K43" t="s">
+        <v>384</v>
+      </c>
+      <c r="L43" t="s">
+        <v>385</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>370</v>
+      </c>
+      <c r="O43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>379</v>
+      </c>
+      <c r="X43" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>387</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>388</v>
+      </c>
+      <c r="J44" t="s">
+        <v>389</v>
+      </c>
+      <c r="K44" t="s">
+        <v>390</v>
+      </c>
+      <c r="L44" t="s">
+        <v>391</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>392</v>
+      </c>
+      <c r="O44" t="s">
+        <v>77</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>393</v>
+      </c>
+      <c r="X44" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>396</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>397</v>
+      </c>
+      <c r="J45" t="s">
+        <v>398</v>
+      </c>
+      <c r="K45" t="s">
+        <v>399</v>
+      </c>
+      <c r="L45" t="s">
+        <v>400</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>401</v>
+      </c>
+      <c r="O45" t="s">
+        <v>94</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>402</v>
+      </c>
+      <c r="X45" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>405</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>406</v>
+      </c>
+      <c r="J46" t="s">
+        <v>407</v>
+      </c>
+      <c r="K46" t="s">
+        <v>408</v>
+      </c>
+      <c r="L46" t="s">
+        <v>409</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>410</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>411</v>
+      </c>
+      <c r="X46" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>414</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>415</v>
+      </c>
+      <c r="J47" t="s">
+        <v>416</v>
+      </c>
+      <c r="K47" t="s">
+        <v>417</v>
+      </c>
+      <c r="L47" t="s">
+        <v>418</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>419</v>
+      </c>
+      <c r="O47" t="s">
+        <v>77</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>420</v>
+      </c>
+      <c r="X47" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>423</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>424</v>
+      </c>
+      <c r="J48" t="s">
+        <v>425</v>
+      </c>
+      <c r="K48" t="s">
+        <v>426</v>
+      </c>
+      <c r="L48" t="s">
+        <v>427</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>419</v>
+      </c>
+      <c r="O48" t="s">
+        <v>94</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>428</v>
+      </c>
+      <c r="X48" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>431</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>432</v>
+      </c>
+      <c r="J49" t="s">
+        <v>433</v>
+      </c>
+      <c r="K49" t="s">
+        <v>434</v>
+      </c>
+      <c r="L49" t="s">
+        <v>435</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>419</v>
+      </c>
+      <c r="O49" t="s">
+        <v>77</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>436</v>
+      </c>
+      <c r="X49" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>439</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>440</v>
+      </c>
+      <c r="J50" t="s">
+        <v>441</v>
+      </c>
+      <c r="K50" t="s">
+        <v>442</v>
+      </c>
+      <c r="L50" t="s">
+        <v>443</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>444</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>445</v>
+      </c>
+      <c r="X50" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>448</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>449</v>
+      </c>
+      <c r="J51" t="s">
+        <v>450</v>
+      </c>
+      <c r="K51" t="s">
+        <v>451</v>
+      </c>
+      <c r="L51" t="s">
+        <v>452</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>453</v>
+      </c>
+      <c r="O51" t="s">
+        <v>77</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>454</v>
+      </c>
+      <c r="X51" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>457</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>458</v>
+      </c>
+      <c r="J52" t="s">
+        <v>459</v>
+      </c>
+      <c r="K52" t="s">
+        <v>460</v>
+      </c>
+      <c r="L52" t="s">
+        <v>461</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>453</v>
+      </c>
+      <c r="O52" t="s">
+        <v>77</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>454</v>
+      </c>
+      <c r="X52" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>463</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>464</v>
+      </c>
+      <c r="J53" t="s">
+        <v>465</v>
+      </c>
+      <c r="K53" t="s">
+        <v>466</v>
+      </c>
+      <c r="L53" t="s">
+        <v>467</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>468</v>
+      </c>
+      <c r="O53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>469</v>
+      </c>
+      <c r="X53" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>472</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>473</v>
+      </c>
+      <c r="J54" t="s">
+        <v>474</v>
+      </c>
+      <c r="K54" t="s">
+        <v>475</v>
+      </c>
+      <c r="L54" t="s">
+        <v>476</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>468</v>
+      </c>
+      <c r="O54" t="s">
+        <v>77</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>469</v>
+      </c>
+      <c r="X54" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>478</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>479</v>
+      </c>
+      <c r="J55" t="s">
+        <v>480</v>
+      </c>
+      <c r="K55" t="s">
+        <v>481</v>
+      </c>
+      <c r="L55" t="s">
+        <v>482</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>483</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>484</v>
+      </c>
+      <c r="X55" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>487</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>488</v>
+      </c>
+      <c r="J56" t="s">
+        <v>489</v>
+      </c>
+      <c r="K56" t="s">
+        <v>490</v>
+      </c>
+      <c r="L56" t="s">
+        <v>491</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>492</v>
+      </c>
+      <c r="O56" t="s">
+        <v>77</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>493</v>
+      </c>
+      <c r="X56" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>496</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>497</v>
+      </c>
+      <c r="J57" t="s">
+        <v>498</v>
+      </c>
+      <c r="K57" t="s">
+        <v>499</v>
+      </c>
+      <c r="L57" t="s">
+        <v>500</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>501</v>
+      </c>
+      <c r="X57" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>504</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>505</v>
+      </c>
+      <c r="J58" t="s">
+        <v>498</v>
+      </c>
+      <c r="K58" t="s">
+        <v>506</v>
+      </c>
+      <c r="L58" t="s">
+        <v>507</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>501</v>
+      </c>
+      <c r="X58" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>509</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>510</v>
+      </c>
+      <c r="J59" t="s">
+        <v>511</v>
+      </c>
+      <c r="K59" t="s">
+        <v>512</v>
+      </c>
+      <c r="L59" t="s">
+        <v>513</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>514</v>
+      </c>
+      <c r="O59" t="s">
+        <v>94</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>515</v>
+      </c>
+      <c r="X59" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>518</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>519</v>
+      </c>
+      <c r="J60" t="s">
+        <v>520</v>
+      </c>
+      <c r="K60" t="s">
+        <v>512</v>
+      </c>
+      <c r="L60" t="s">
+        <v>521</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>522</v>
+      </c>
+      <c r="X60" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>525</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>526</v>
+      </c>
+      <c r="J61" t="s">
+        <v>527</v>
+      </c>
+      <c r="K61" t="s">
+        <v>528</v>
+      </c>
+      <c r="L61" t="s">
+        <v>529</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>514</v>
+      </c>
+      <c r="O61" t="s">
+        <v>77</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>522</v>
+      </c>
+      <c r="X61" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>531</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>532</v>
+      </c>
+      <c r="J62" t="s">
+        <v>533</v>
+      </c>
+      <c r="K62" t="s">
+        <v>534</v>
+      </c>
+      <c r="L62" t="s">
+        <v>535</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>536</v>
+      </c>
+      <c r="O62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>537</v>
+      </c>
+      <c r="X62" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>540</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>541</v>
+      </c>
+      <c r="J63" t="s">
+        <v>542</v>
+      </c>
+      <c r="K63" t="s">
+        <v>543</v>
+      </c>
+      <c r="L63" t="s">
+        <v>544</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>545</v>
+      </c>
+      <c r="O63" t="s">
+        <v>77</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>546</v>
+      </c>
+      <c r="X63" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>549</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>550</v>
+      </c>
+      <c r="J64" t="s">
+        <v>551</v>
+      </c>
+      <c r="K64" t="s">
+        <v>552</v>
+      </c>
+      <c r="L64" t="s">
+        <v>553</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>554</v>
+      </c>
+      <c r="O64" t="s">
+        <v>61</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>555</v>
+      </c>
+      <c r="X64" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>558</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>559</v>
+      </c>
+      <c r="J65" t="s">
+        <v>560</v>
+      </c>
+      <c r="K65" t="s">
+        <v>561</v>
+      </c>
+      <c r="L65" t="s">
+        <v>562</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>554</v>
+      </c>
+      <c r="O65" t="s">
+        <v>77</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>563</v>
+      </c>
+      <c r="X65" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>566</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>567</v>
+      </c>
+      <c r="J66" t="s">
+        <v>568</v>
+      </c>
+      <c r="K66" t="s">
+        <v>569</v>
+      </c>
+      <c r="L66" t="s">
+        <v>570</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>554</v>
+      </c>
+      <c r="O66" t="s">
+        <v>242</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>571</v>
+      </c>
+      <c r="X66" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>574</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>575</v>
+      </c>
+      <c r="J67" t="s">
+        <v>576</v>
+      </c>
+      <c r="K67" t="s">
+        <v>577</v>
+      </c>
+      <c r="L67" t="s">
+        <v>578</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>579</v>
+      </c>
+      <c r="O67" t="s">
+        <v>77</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>580</v>
+      </c>
+      <c r="X67" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>583</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>584</v>
+      </c>
+      <c r="J68" t="s">
+        <v>585</v>
+      </c>
+      <c r="K68" t="s">
+        <v>586</v>
+      </c>
+      <c r="L68" t="s">
+        <v>587</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>588</v>
+      </c>
+      <c r="X68" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>591</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>592</v>
+      </c>
+      <c r="J69" t="s">
+        <v>593</v>
+      </c>
+      <c r="K69" t="s">
+        <v>594</v>
+      </c>
+      <c r="L69" t="s">
+        <v>595</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>596</v>
+      </c>
+      <c r="O69" t="s">
+        <v>94</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>597</v>
+      </c>
+      <c r="X69" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>600</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>601</v>
+      </c>
+      <c r="J70" t="s">
+        <v>602</v>
+      </c>
+      <c r="K70" t="s">
+        <v>603</v>
+      </c>
+      <c r="L70" t="s">
+        <v>604</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>597</v>
+      </c>
+      <c r="X70" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>606</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>607</v>
+      </c>
+      <c r="J71" t="s">
+        <v>608</v>
+      </c>
+      <c r="K71" t="s">
+        <v>609</v>
+      </c>
+      <c r="L71" t="s">
+        <v>610</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>611</v>
+      </c>
+      <c r="O71" t="s">
+        <v>77</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>612</v>
+      </c>
+      <c r="X71" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>615</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>616</v>
+      </c>
+      <c r="J72" t="s">
+        <v>617</v>
+      </c>
+      <c r="K72" t="s">
+        <v>618</v>
+      </c>
+      <c r="L72" t="s">
+        <v>619</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>611</v>
+      </c>
+      <c r="O72" t="s">
+        <v>77</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>620</v>
+      </c>
+      <c r="X72" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>623</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>624</v>
+      </c>
+      <c r="J73" t="s">
+        <v>625</v>
+      </c>
+      <c r="K73" t="s">
+        <v>626</v>
+      </c>
+      <c r="L73" t="s">
+        <v>627</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>611</v>
+      </c>
+      <c r="O73" t="s">
+        <v>77</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>628</v>
+      </c>
+      <c r="X73" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>631</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>632</v>
+      </c>
+      <c r="J74" t="s">
+        <v>633</v>
+      </c>
+      <c r="K74" t="s">
+        <v>634</v>
+      </c>
+      <c r="L74" t="s">
+        <v>635</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>636</v>
+      </c>
+      <c r="O74" t="s">
+        <v>77</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>637</v>
+      </c>
+      <c r="X74" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>640</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>641</v>
+      </c>
+      <c r="J75" t="s">
+        <v>642</v>
+      </c>
+      <c r="K75" t="s">
+        <v>643</v>
+      </c>
+      <c r="L75" t="s">
+        <v>644</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>636</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>645</v>
+      </c>
+      <c r="X75" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>648</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>649</v>
+      </c>
+      <c r="J76" t="s">
+        <v>650</v>
+      </c>
+      <c r="K76" t="s">
+        <v>651</v>
+      </c>
+      <c r="L76" t="s">
+        <v>652</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>636</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>653</v>
+      </c>
+      <c r="X76" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>656</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>657</v>
+      </c>
+      <c r="J77" t="s">
+        <v>658</v>
+      </c>
+      <c r="K77" t="s">
+        <v>659</v>
+      </c>
+      <c r="L77" t="s">
+        <v>660</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>661</v>
+      </c>
+      <c r="O77" t="s">
+        <v>77</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>662</v>
+      </c>
+      <c r="X77" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>665</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>666</v>
+      </c>
+      <c r="J78" t="s">
+        <v>667</v>
+      </c>
+      <c r="K78" t="s">
+        <v>668</v>
+      </c>
+      <c r="L78" t="s">
+        <v>669</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>661</v>
+      </c>
+      <c r="O78" t="s">
+        <v>77</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>670</v>
+      </c>
+      <c r="X78" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>673</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>674</v>
+      </c>
+      <c r="J79" t="s">
+        <v>675</v>
+      </c>
+      <c r="K79" t="s">
+        <v>676</v>
+      </c>
+      <c r="L79" t="s">
+        <v>677</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>661</v>
+      </c>
+      <c r="O79" t="s">
+        <v>77</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>678</v>
+      </c>
+      <c r="X79" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>681</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>682</v>
+      </c>
+      <c r="J80" t="s">
+        <v>683</v>
+      </c>
+      <c r="K80" t="s">
+        <v>684</v>
+      </c>
+      <c r="L80" t="s">
+        <v>685</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>661</v>
+      </c>
+      <c r="O80" t="s">
+        <v>77</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>686</v>
+      </c>
+      <c r="X80" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>689</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>690</v>
+      </c>
+      <c r="J81" t="s">
+        <v>691</v>
+      </c>
+      <c r="K81" t="s">
+        <v>692</v>
+      </c>
+      <c r="L81" t="s">
+        <v>693</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>694</v>
+      </c>
+      <c r="O81" t="s">
+        <v>94</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>695</v>
+      </c>
+      <c r="X81" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>698</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>699</v>
+      </c>
+      <c r="J82" t="s">
+        <v>700</v>
+      </c>
+      <c r="K82" t="s">
+        <v>701</v>
+      </c>
+      <c r="L82" t="s">
+        <v>702</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>694</v>
+      </c>
+      <c r="O82" t="s">
+        <v>77</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>653</v>
+      </c>
+      <c r="X82" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>35398</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>704</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>705</v>
+      </c>
+      <c r="J83" t="s">
+        <v>706</v>
+      </c>
+      <c r="K83" t="s">
+        <v>707</v>
+      </c>
+      <c r="L83" t="s">
+        <v>708</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>709</v>
+      </c>
+      <c r="O83" t="s">
+        <v>77</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>710</v>
+      </c>
+      <c r="X83" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>712</v>
       </c>
     </row>
   </sheetData>
